--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,30 +407,35 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Total In Hospital</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>In ICU</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Community Transmission</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Total Community Transmission</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tests</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Total Tests</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Test Count</t>
         </is>
@@ -710,16 +715,16 @@
       <c r="C26">
         <v>102</v>
       </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
       <c r="K26">
         <v>2</v>
       </c>
-      <c r="M26">
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="N26">
         <v>7459</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Estimate</t>
         </is>
@@ -747,25 +752,25 @@
       <c r="G27">
         <v>12</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>6</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>2</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>4</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>900</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>8359</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Estimate</t>
         </is>
@@ -793,25 +798,74 @@
       <c r="G28">
         <v>22</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>6</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1421</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>9780</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Accurate</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B29">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <v>262</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>2417</v>
+      </c>
+      <c r="N29">
+        <v>12683</v>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>Accurate</t>
         </is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,42 +402,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>In Hospital</t>
+          <t>In Hospital Now</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total In Hospital</t>
+          <t>Total Been In Hospital</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>In ICU</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Community Transmission</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Total Community Transmission</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tests</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total Tests</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Test Count</t>
         </is>
       </c>
     </row>
@@ -715,20 +690,6 @@
       <c r="C26">
         <v>102</v>
       </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="N26">
-        <v>7459</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Estimate</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -752,28 +713,11 @@
       <c r="G27">
         <v>12</v>
       </c>
-      <c r="I27">
+      <c r="H27">
         <v>6</v>
       </c>
       <c r="J27">
         <v>0</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>900</v>
-      </c>
-      <c r="N27">
-        <v>8359</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Estimate</t>
-        </is>
       </c>
     </row>
     <row r="28">
@@ -798,28 +742,11 @@
       <c r="G28">
         <v>22</v>
       </c>
-      <c r="I28">
+      <c r="H28">
         <v>6</v>
       </c>
       <c r="J28">
         <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>1421</v>
-      </c>
-      <c r="N28">
-        <v>9780</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Accurate</t>
-        </is>
       </c>
     </row>
     <row r="29">
@@ -845,30 +772,42 @@
         <v>27</v>
       </c>
       <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
         <v>7</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <v>2417</v>
-      </c>
-      <c r="N29">
-        <v>12683</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Accurate</t>
-        </is>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B30">
+        <v>76</v>
+      </c>
+      <c r="C30">
+        <v>338</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>37</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,52 +367,62 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Confirmed</t>
+          <t>total_confirmed</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>probable</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total Probable</t>
+          <t>total_probable</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Recovered</t>
+          <t>total</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Total Recovered</t>
+          <t>cumulative_total</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>In Hospital Now</t>
+          <t>recovered</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Been In Hospital</t>
+          <t>total_recovered</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>In ICU</t>
+          <t>in_hospital_now</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>total_been_in_hospital</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>in_icu</t>
         </is>
       </c>
     </row>
@@ -426,6 +436,12 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -437,6 +453,12 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -448,6 +470,12 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -459,6 +487,12 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -470,6 +504,12 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -481,6 +521,12 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -492,6 +538,12 @@
       <c r="C8">
         <v>3</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -503,6 +555,12 @@
       <c r="C9">
         <v>4</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -514,6 +572,12 @@
       <c r="C10">
         <v>5</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -525,6 +589,12 @@
       <c r="C11">
         <v>5</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -536,6 +606,12 @@
       <c r="C12">
         <v>5</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -547,6 +623,12 @@
       <c r="C13">
         <v>5</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -558,6 +640,12 @@
       <c r="C14">
         <v>5</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -569,6 +657,12 @@
       <c r="C15">
         <v>5</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -580,6 +674,12 @@
       <c r="C16">
         <v>5</v>
       </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -591,6 +691,12 @@
       <c r="C17">
         <v>6</v>
       </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -602,6 +708,12 @@
       <c r="C18">
         <v>8</v>
       </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -613,6 +725,12 @@
       <c r="C19">
         <v>8</v>
       </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -624,6 +742,12 @@
       <c r="C20">
         <v>12</v>
       </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -635,6 +759,12 @@
       <c r="C21">
         <v>20</v>
       </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>32</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -646,6 +776,12 @@
       <c r="C22">
         <v>28</v>
       </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -657,6 +793,12 @@
       <c r="C23">
         <v>39</v>
       </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>51</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -668,6 +810,12 @@
       <c r="C24">
         <v>52</v>
       </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>64</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -679,6 +827,12 @@
       <c r="C25">
         <v>66</v>
       </c>
+      <c r="F25">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>78</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
@@ -690,6 +844,12 @@
       <c r="C26">
         <v>102</v>
       </c>
+      <c r="F26">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>114</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -708,15 +868,21 @@
         <v>13</v>
       </c>
       <c r="F27">
+        <v>53</v>
+      </c>
+      <c r="G27">
+        <v>167</v>
+      </c>
+      <c r="H27">
         <v>12</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>12</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>6</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0</v>
       </c>
     </row>
@@ -737,15 +903,21 @@
         <v>16</v>
       </c>
       <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>217</v>
+      </c>
+      <c r="H28">
         <v>10</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>22</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>6</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0</v>
       </c>
     </row>
@@ -766,15 +938,21 @@
         <v>21</v>
       </c>
       <c r="F29">
+        <v>78</v>
+      </c>
+      <c r="G29">
+        <v>295</v>
+      </c>
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>27</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>7</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0</v>
       </c>
     </row>
@@ -795,19 +973,63 @@
         <v>30</v>
       </c>
       <c r="F30">
+        <v>85</v>
+      </c>
+      <c r="G30">
+        <v>380</v>
+      </c>
+      <c r="H30">
         <v>10</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>37</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>8</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>20</v>
       </c>
-      <c r="J30">
-        <v>1</v>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B31">
+        <v>78</v>
+      </c>
+      <c r="C31">
+        <v>416</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>83</v>
+      </c>
+      <c r="G31">
+        <v>463</v>
+      </c>
+      <c r="H31">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>22</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,6 +425,16 @@
           <t>in_icu</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>total_deaths</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -457,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -542,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -576,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -593,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -610,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -644,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -661,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -678,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -695,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -712,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -729,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -746,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -763,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="G21">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -780,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -797,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="G23">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -814,7 +824,7 @@
         <v>13</v>
       </c>
       <c r="G24">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="G25">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -848,7 +858,7 @@
         <v>36</v>
       </c>
       <c r="G26">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -871,7 +881,7 @@
         <v>53</v>
       </c>
       <c r="G27">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H27">
         <v>12</v>
@@ -906,7 +916,7 @@
         <v>50</v>
       </c>
       <c r="G28">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="H28">
         <v>10</v>
@@ -941,7 +951,7 @@
         <v>78</v>
       </c>
       <c r="G29">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -976,7 +986,7 @@
         <v>85</v>
       </c>
       <c r="G30">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H30">
         <v>10</v>
@@ -1014,7 +1024,7 @@
         <v>83</v>
       </c>
       <c r="G31">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="H31">
         <v>13</v>
@@ -1030,6 +1040,50 @@
       </c>
       <c r="L31">
         <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>476</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>63</v>
+      </c>
+      <c r="G32">
+        <v>514</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>56</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>28</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,7 +377,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_confirmed</t>
+          <t>totalConfirmed</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -387,7 +387,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>total_probable</t>
+          <t>totalProbable</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -397,7 +397,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_total</t>
+          <t>cumulative</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -407,22 +407,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>total_recovered</t>
+          <t>totalRecovered</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>in_hospital_now</t>
+          <t>inHospitalNow</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>total_been_in_hospital</t>
+          <t>totalBeenInHospital</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>in_icu</t>
+          <t>inIcu</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -432,7 +432,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>total_deaths</t>
+          <t>totalDeaths</t>
         </is>
       </c>
     </row>
@@ -458,13 +458,13 @@
         <v>43890</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -475,13 +475,13 @@
         <v>43891</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -492,13 +492,13 @@
         <v>43892</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -509,13 +509,13 @@
         <v>43893</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>43898</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -611,13 +611,13 @@
         <v>43899</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -628,13 +628,13 @@
         <v>43900</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -645,13 +645,13 @@
         <v>43901</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -662,13 +662,13 @@
         <v>43902</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -679,13 +679,13 @@
         <v>43903</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -730,13 +730,13 @@
         <v>43906</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -1083,6 +1083,50 @@
         <v>1</v>
       </c>
       <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B33">
+        <v>76</v>
+      </c>
+      <c r="C33">
+        <v>552</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <v>75</v>
+      </c>
+      <c r="G33">
+        <v>589</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>63</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>1</v>
       </c>
     </row>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,6 +435,26 @@
           <t>totalDeaths</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>overseas</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>overseasAndContact</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>community</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -1128,6 +1148,18 @@
       </c>
       <c r="N33">
         <v>1</v>
+      </c>
+      <c r="O33">
+        <v>259</v>
+      </c>
+      <c r="P33">
+        <v>118</v>
+      </c>
+      <c r="Q33">
+        <v>68</v>
+      </c>
+      <c r="R33">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,6 +1162,106 @@
         <v>9</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B34">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>47</v>
+      </c>
+      <c r="F34">
+        <v>58</v>
+      </c>
+      <c r="G34">
+        <v>647</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>74</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <v>30</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>343</v>
+      </c>
+      <c r="P34">
+        <v>188</v>
+      </c>
+      <c r="Q34">
+        <v>110</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B35">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>647</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>61</v>
+      </c>
+      <c r="F35">
+        <v>61</v>
+      </c>
+      <c r="G35">
+        <v>708</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>82</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
+      <c r="K35">
+        <v>32</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,6 +1261,74 @@
       <c r="N35">
         <v>1</v>
       </c>
+      <c r="O35">
+        <v>361</v>
+      </c>
+      <c r="P35">
+        <v>212</v>
+      </c>
+      <c r="Q35">
+        <v>127</v>
+      </c>
+      <c r="R35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B36">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>723</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>74</v>
+      </c>
+      <c r="F36">
+        <v>89</v>
+      </c>
+      <c r="G36">
+        <v>797</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>92</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>32</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>406</v>
+      </c>
+      <c r="P36">
+        <v>247</v>
+      </c>
+      <c r="Q36">
+        <v>135</v>
+      </c>
+      <c r="R36">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,12 +447,17 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>overseasAndContact</t>
+          <t>investigating</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
           <t>community</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>established</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1154,173 @@
       <c r="N33">
         <v>1</v>
       </c>
-      <c r="O33">
-        <v>259</v>
-      </c>
-      <c r="P33">
-        <v>118</v>
-      </c>
-      <c r="Q33">
-        <v>68</v>
-      </c>
-      <c r="R33">
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B34">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>47</v>
+      </c>
+      <c r="F34">
+        <v>58</v>
+      </c>
+      <c r="G34">
+        <v>647</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>74</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>343</v>
+      </c>
+      <c r="P34">
+        <v>188</v>
+      </c>
+      <c r="Q34">
+        <v>110</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B35">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>647</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>61</v>
+      </c>
+      <c r="F35">
+        <v>61</v>
+      </c>
+      <c r="G35">
+        <v>708</v>
+      </c>
+      <c r="H35">
         <v>9</v>
+      </c>
+      <c r="I35">
+        <v>83</v>
+      </c>
+      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>361</v>
+      </c>
+      <c r="P35">
+        <v>212</v>
+      </c>
+      <c r="Q35">
+        <v>127</v>
+      </c>
+      <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B36">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>723</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>74</v>
+      </c>
+      <c r="F36">
+        <v>89</v>
+      </c>
+      <c r="G36">
+        <v>797</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>92</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>406</v>
+      </c>
+      <c r="P36">
+        <v>247</v>
+      </c>
+      <c r="Q36">
+        <v>135</v>
+      </c>
+      <c r="R36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,6 +1323,62 @@
         <v>797</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B37">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>772</v>
+      </c>
+      <c r="D37">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <v>96</v>
+      </c>
+      <c r="F37">
+        <v>71</v>
+      </c>
+      <c r="G37">
+        <v>868</v>
+      </c>
+      <c r="H37">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>103</v>
+      </c>
+      <c r="J37">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>425</v>
+      </c>
+      <c r="P37">
+        <v>286</v>
+      </c>
+      <c r="Q37">
+        <v>148</v>
+      </c>
+      <c r="R37">
+        <v>9</v>
+      </c>
+      <c r="S37">
+        <v>868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1379,6 +1379,62 @@
         <v>868</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B38">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>824</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>126</v>
+      </c>
+      <c r="F38">
+        <v>82</v>
+      </c>
+      <c r="G38">
+        <v>950</v>
+      </c>
+      <c r="H38">
+        <v>24</v>
+      </c>
+      <c r="I38">
+        <v>127</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>446</v>
+      </c>
+      <c r="P38">
+        <v>323</v>
+      </c>
+      <c r="Q38">
+        <v>162</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <v>950</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,6 +1435,62 @@
         <v>950</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>872</v>
+      </c>
+      <c r="D39">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>167</v>
+      </c>
+      <c r="F39">
+        <v>89</v>
+      </c>
+      <c r="G39">
+        <v>1039</v>
+      </c>
+      <c r="H39">
+        <v>53</v>
+      </c>
+      <c r="I39">
+        <v>180</v>
+      </c>
+      <c r="J39">
+        <v>15</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>468</v>
+      </c>
+      <c r="P39">
+        <v>374</v>
+      </c>
+      <c r="Q39">
+        <v>187</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>1039</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,12 +392,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>cases</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cumulative</t>
+          <t>totalCases</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -458,6 +458,11 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>established</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>tag</t>
         </is>
       </c>
     </row>
@@ -477,6 +482,11 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -494,6 +504,11 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -511,6 +526,11 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -528,6 +548,11 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -545,6 +570,11 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -562,6 +592,11 @@
       <c r="G7">
         <v>2</v>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -579,6 +614,11 @@
       <c r="G8">
         <v>3</v>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -596,6 +636,11 @@
       <c r="G9">
         <v>4</v>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -613,6 +658,11 @@
       <c r="G10">
         <v>5</v>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -630,6 +680,11 @@
       <c r="G11">
         <v>5</v>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -647,6 +702,11 @@
       <c r="G12">
         <v>5</v>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -664,6 +724,11 @@
       <c r="G13">
         <v>5</v>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -681,6 +746,11 @@
       <c r="G14">
         <v>5</v>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -698,6 +768,11 @@
       <c r="G15">
         <v>5</v>
       </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -715,6 +790,11 @@
       <c r="G16">
         <v>5</v>
       </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -732,6 +812,11 @@
       <c r="G17">
         <v>6</v>
       </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -749,6 +834,11 @@
       <c r="G18">
         <v>8</v>
       </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -766,6 +856,11 @@
       <c r="G19">
         <v>8</v>
       </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -783,6 +878,11 @@
       <c r="G20">
         <v>12</v>
       </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -800,6 +900,11 @@
       <c r="G21">
         <v>20</v>
       </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -817,6 +922,11 @@
       <c r="G22">
         <v>28</v>
       </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -834,6 +944,11 @@
       <c r="G23">
         <v>39</v>
       </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -851,6 +966,11 @@
       <c r="G24">
         <v>52</v>
       </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -868,6 +988,11 @@
       <c r="G25">
         <v>66</v>
       </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
@@ -885,6 +1010,11 @@
       <c r="G26">
         <v>102</v>
       </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -920,6 +1050,11 @@
       <c r="L27">
         <v>0</v>
       </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
@@ -955,6 +1090,11 @@
       <c r="L28">
         <v>0</v>
       </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
@@ -990,6 +1130,11 @@
       <c r="L29">
         <v>0</v>
       </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -1028,6 +1173,11 @@
       <c r="L30">
         <v>1</v>
       </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
@@ -1066,6 +1216,11 @@
       <c r="L31">
         <v>2</v>
       </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -1110,6 +1265,11 @@
       <c r="N32">
         <v>1</v>
       </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
@@ -1154,6 +1314,11 @@
       <c r="N33">
         <v>1</v>
       </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
@@ -1210,6 +1375,11 @@
       <c r="S34">
         <v>647</v>
       </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
@@ -1266,6 +1436,11 @@
       <c r="S35">
         <v>708</v>
       </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
@@ -1322,6 +1497,11 @@
       <c r="S36">
         <v>797</v>
       </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
@@ -1378,6 +1558,11 @@
       <c r="S37">
         <v>868</v>
       </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
@@ -1434,6 +1619,11 @@
       <c r="S38">
         <v>950</v>
       </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
@@ -1489,6 +1679,11 @@
       </c>
       <c r="S39">
         <v>1039</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1648,10 +1648,10 @@
         <v>1039</v>
       </c>
       <c r="H39">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I39">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="J39">
         <v>15</v>
@@ -1681,6 +1681,67 @@
         <v>1039</v>
       </c>
       <c r="T39" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>911</v>
+      </c>
+      <c r="D40">
+        <v>28</v>
+      </c>
+      <c r="E40">
+        <v>195</v>
+      </c>
+      <c r="F40">
+        <v>67</v>
+      </c>
+      <c r="G40">
+        <v>1106</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>176</v>
+      </c>
+      <c r="J40">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>476</v>
+      </c>
+      <c r="P40">
+        <v>420</v>
+      </c>
+      <c r="Q40">
+        <v>188</v>
+      </c>
+      <c r="R40">
+        <v>22</v>
+      </c>
+      <c r="S40">
+        <v>1106</v>
+      </c>
+      <c r="T40" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,6 +1747,67 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B41">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>943</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>217</v>
+      </c>
+      <c r="F41">
+        <v>54</v>
+      </c>
+      <c r="G41">
+        <v>1160</v>
+      </c>
+      <c r="H41">
+        <v>65</v>
+      </c>
+      <c r="I41">
+        <v>241</v>
+      </c>
+      <c r="J41">
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>487</v>
+      </c>
+      <c r="P41">
+        <v>476</v>
+      </c>
+      <c r="Q41">
+        <v>174</v>
+      </c>
+      <c r="R41">
+        <v>23</v>
+      </c>
+      <c r="S41">
+        <v>1160</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1808,6 +1808,67 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B42">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>969</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>243</v>
+      </c>
+      <c r="F42">
+        <v>52</v>
+      </c>
+      <c r="G42">
+        <v>1212</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+      <c r="I42">
+        <v>282</v>
+      </c>
+      <c r="J42">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>496</v>
+      </c>
+      <c r="P42">
+        <v>520</v>
+      </c>
+      <c r="Q42">
+        <v>169</v>
+      </c>
+      <c r="R42">
+        <v>24</v>
+      </c>
+      <c r="S42">
+        <v>1210</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -1819,16 +1819,16 @@
         <v>969</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E42">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F42">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G42">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H42">
         <v>41</v>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1808,6 +1808,128 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B42">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>969</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>241</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>1210</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+      <c r="I42">
+        <v>282</v>
+      </c>
+      <c r="J42">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>496</v>
+      </c>
+      <c r="P42">
+        <v>520</v>
+      </c>
+      <c r="Q42">
+        <v>169</v>
+      </c>
+      <c r="R42">
+        <v>24</v>
+      </c>
+      <c r="S42">
+        <v>1210</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B43">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>992</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>247</v>
+      </c>
+      <c r="F43">
+        <v>29</v>
+      </c>
+      <c r="G43">
+        <v>1239</v>
+      </c>
+      <c r="H43">
+        <v>35</v>
+      </c>
+      <c r="I43">
+        <v>317</v>
+      </c>
+      <c r="J43">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>508</v>
+      </c>
+      <c r="P43">
+        <v>545</v>
+      </c>
+      <c r="Q43">
+        <v>161</v>
+      </c>
+      <c r="R43">
+        <v>25</v>
+      </c>
+      <c r="S43">
+        <v>1239</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1930,6 +1930,311 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B44">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>1015</v>
+      </c>
+      <c r="D44">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>268</v>
+      </c>
+      <c r="F44">
+        <v>44</v>
+      </c>
+      <c r="G44">
+        <v>1283</v>
+      </c>
+      <c r="H44">
+        <v>56</v>
+      </c>
+      <c r="I44">
+        <v>373</v>
+      </c>
+      <c r="J44">
+        <v>16</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>513</v>
+      </c>
+      <c r="P44">
+        <v>565</v>
+      </c>
+      <c r="Q44">
+        <v>180</v>
+      </c>
+      <c r="R44">
+        <v>26</v>
+      </c>
+      <c r="S44">
+        <v>1283</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>1035</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>277</v>
+      </c>
+      <c r="F45">
+        <v>29</v>
+      </c>
+      <c r="G45">
+        <v>1312</v>
+      </c>
+      <c r="H45">
+        <v>49</v>
+      </c>
+      <c r="I45">
+        <v>422</v>
+      </c>
+      <c r="J45">
+        <v>15</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>525</v>
+      </c>
+      <c r="P45">
+        <v>604</v>
+      </c>
+      <c r="Q45">
+        <v>144</v>
+      </c>
+      <c r="R45">
+        <v>26</v>
+      </c>
+      <c r="S45">
+        <v>1312</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>1049</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>281</v>
+      </c>
+      <c r="F46">
+        <v>18</v>
+      </c>
+      <c r="G46">
+        <v>1330</v>
+      </c>
+      <c r="H46">
+        <v>49</v>
+      </c>
+      <c r="I46">
+        <v>471</v>
+      </c>
+      <c r="J46">
+        <v>14</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>532</v>
+      </c>
+      <c r="P46">
+        <v>625</v>
+      </c>
+      <c r="Q46">
+        <v>146</v>
+      </c>
+      <c r="R46">
+        <v>27</v>
+      </c>
+      <c r="S46">
+        <v>1330</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>1064</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>285</v>
+      </c>
+      <c r="F47">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>1349</v>
+      </c>
+      <c r="H47">
+        <v>75</v>
+      </c>
+      <c r="I47">
+        <v>546</v>
+      </c>
+      <c r="J47">
+        <v>15</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>540</v>
+      </c>
+      <c r="P47">
+        <v>634</v>
+      </c>
+      <c r="Q47">
+        <v>148</v>
+      </c>
+      <c r="R47">
+        <v>27</v>
+      </c>
+      <c r="S47">
+        <v>1349</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1072</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>294</v>
+      </c>
+      <c r="F48">
+        <v>17</v>
+      </c>
+      <c r="G48">
+        <v>1366</v>
+      </c>
+      <c r="H48">
+        <v>82</v>
+      </c>
+      <c r="I48">
+        <v>628</v>
+      </c>
+      <c r="J48">
+        <v>15</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <v>533</v>
+      </c>
+      <c r="P48">
+        <v>656</v>
+      </c>
+      <c r="Q48">
+        <v>150</v>
+      </c>
+      <c r="R48">
+        <v>27</v>
+      </c>
+      <c r="S48">
+        <v>1366</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2235,6 +2235,67 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>1078</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>308</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>1386</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>728</v>
+      </c>
+      <c r="J49">
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>9</v>
+      </c>
+      <c r="O49">
+        <v>541</v>
+      </c>
+      <c r="P49">
+        <v>665</v>
+      </c>
+      <c r="Q49">
+        <v>139</v>
+      </c>
+      <c r="R49">
+        <v>28</v>
+      </c>
+      <c r="S49">
+        <v>1386</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2296,6 +2296,128 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>1084</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>317</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>1401</v>
+      </c>
+      <c r="H50">
+        <v>42</v>
+      </c>
+      <c r="I50">
+        <v>770</v>
+      </c>
+      <c r="J50">
+        <v>12</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>9</v>
+      </c>
+      <c r="O50">
+        <v>546</v>
+      </c>
+      <c r="P50">
+        <v>771</v>
+      </c>
+      <c r="Q50">
+        <v>56</v>
+      </c>
+      <c r="R50">
+        <v>28</v>
+      </c>
+      <c r="S50">
+        <v>1401</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1086</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>323</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>1409</v>
+      </c>
+      <c r="H51">
+        <v>46</v>
+      </c>
+      <c r="I51">
+        <v>816</v>
+      </c>
+      <c r="J51">
+        <v>14</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>11</v>
+      </c>
+      <c r="O51">
+        <v>550</v>
+      </c>
+      <c r="P51">
+        <v>761</v>
+      </c>
+      <c r="Q51">
+        <v>42</v>
+      </c>
+      <c r="R51">
+        <v>42</v>
+      </c>
+      <c r="S51">
+        <v>1409</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2418,6 +2418,372 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>1094</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>328</v>
+      </c>
+      <c r="F52">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>1422</v>
+      </c>
+      <c r="H52">
+        <v>51</v>
+      </c>
+      <c r="I52">
+        <v>867</v>
+      </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <v>555</v>
+      </c>
+      <c r="P52">
+        <v>768</v>
+      </c>
+      <c r="Q52">
+        <v>43</v>
+      </c>
+      <c r="R52">
+        <v>43</v>
+      </c>
+      <c r="S52">
+        <v>1422</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>1098</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>333</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>1431</v>
+      </c>
+      <c r="H53">
+        <v>45</v>
+      </c>
+      <c r="I53">
+        <v>912</v>
+      </c>
+      <c r="J53">
+        <v>18</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <v>558</v>
+      </c>
+      <c r="P53">
+        <v>773</v>
+      </c>
+      <c r="Q53">
+        <v>43</v>
+      </c>
+      <c r="R53">
+        <v>43</v>
+      </c>
+      <c r="S53">
+        <v>1431</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>1105</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>335</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>1440</v>
+      </c>
+      <c r="H54">
+        <v>62</v>
+      </c>
+      <c r="I54">
+        <v>974</v>
+      </c>
+      <c r="J54">
+        <v>14</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>12</v>
+      </c>
+      <c r="O54">
+        <v>562</v>
+      </c>
+      <c r="P54">
+        <v>778</v>
+      </c>
+      <c r="Q54">
+        <v>29</v>
+      </c>
+      <c r="R54">
+        <v>58</v>
+      </c>
+      <c r="S54">
+        <v>1440</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1107</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>338</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>1445</v>
+      </c>
+      <c r="H55">
+        <v>32</v>
+      </c>
+      <c r="I55">
+        <v>1006</v>
+      </c>
+      <c r="J55">
+        <v>12</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>13</v>
+      </c>
+      <c r="O55">
+        <v>564</v>
+      </c>
+      <c r="P55">
+        <v>795</v>
+      </c>
+      <c r="Q55">
+        <v>29</v>
+      </c>
+      <c r="R55">
+        <v>58</v>
+      </c>
+      <c r="S55">
+        <v>1445</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>1113</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>338</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>1451</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>1036</v>
+      </c>
+      <c r="J56">
+        <v>11</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>14</v>
+      </c>
+      <c r="O56">
+        <v>566</v>
+      </c>
+      <c r="P56">
+        <v>798</v>
+      </c>
+      <c r="Q56">
+        <v>29</v>
+      </c>
+      <c r="R56">
+        <v>58</v>
+      </c>
+      <c r="S56">
+        <v>1451</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1114</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>340</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>1454</v>
+      </c>
+      <c r="H57">
+        <v>29</v>
+      </c>
+      <c r="I57">
+        <v>1065</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>16</v>
+      </c>
+      <c r="O57">
+        <v>567</v>
+      </c>
+      <c r="P57">
+        <v>800</v>
+      </c>
+      <c r="Q57">
+        <v>29</v>
+      </c>
+      <c r="R57">
+        <v>58</v>
+      </c>
+      <c r="S57">
+        <v>1454</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -2667,10 +2667,10 @@
         <v>43943</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>338</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="H56">
         <v>30</v>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2743,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="H57">
         <v>29</v>
@@ -2764,10 +2764,10 @@
         <v>16</v>
       </c>
       <c r="O57">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P57">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="Q57">
         <v>29</v>
@@ -2776,7 +2776,7 @@
         <v>58</v>
       </c>
       <c r="S57">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,9 +1372,6 @@
       <c r="R34">
         <v>6</v>
       </c>
-      <c r="S34">
-        <v>647</v>
-      </c>
       <c r="T34" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -1433,9 +1430,6 @@
       <c r="R35">
         <v>7</v>
       </c>
-      <c r="S35">
-        <v>708</v>
-      </c>
       <c r="T35" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -1494,9 +1488,6 @@
       <c r="R36">
         <v>8</v>
       </c>
-      <c r="S36">
-        <v>797</v>
-      </c>
       <c r="T36" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -1555,9 +1546,6 @@
       <c r="R37">
         <v>9</v>
       </c>
-      <c r="S37">
-        <v>868</v>
-      </c>
       <c r="T37" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -1616,9 +1604,6 @@
       <c r="R38">
         <v>10</v>
       </c>
-      <c r="S38">
-        <v>950</v>
-      </c>
       <c r="T38" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -1677,9 +1662,6 @@
       <c r="R39">
         <v>10</v>
       </c>
-      <c r="S39">
-        <v>1039</v>
-      </c>
       <c r="T39" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -1738,9 +1720,6 @@
       <c r="R40">
         <v>22</v>
       </c>
-      <c r="S40">
-        <v>1106</v>
-      </c>
       <c r="T40" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -1799,9 +1778,6 @@
       <c r="R41">
         <v>23</v>
       </c>
-      <c r="S41">
-        <v>1160</v>
-      </c>
       <c r="T41" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -1860,9 +1836,6 @@
       <c r="R42">
         <v>24</v>
       </c>
-      <c r="S42">
-        <v>1210</v>
-      </c>
       <c r="T42" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -1921,9 +1894,6 @@
       <c r="R43">
         <v>25</v>
       </c>
-      <c r="S43">
-        <v>1239</v>
-      </c>
       <c r="T43" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -1982,9 +1952,6 @@
       <c r="R44">
         <v>26</v>
       </c>
-      <c r="S44">
-        <v>1283</v>
-      </c>
       <c r="T44" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2043,9 +2010,6 @@
       <c r="R45">
         <v>26</v>
       </c>
-      <c r="S45">
-        <v>1312</v>
-      </c>
       <c r="T45" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2104,9 +2068,6 @@
       <c r="R46">
         <v>27</v>
       </c>
-      <c r="S46">
-        <v>1330</v>
-      </c>
       <c r="T46" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2165,9 +2126,6 @@
       <c r="R47">
         <v>27</v>
       </c>
-      <c r="S47">
-        <v>1349</v>
-      </c>
       <c r="T47" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2226,9 +2184,6 @@
       <c r="R48">
         <v>27</v>
       </c>
-      <c r="S48">
-        <v>1366</v>
-      </c>
       <c r="T48" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2287,9 +2242,6 @@
       <c r="R49">
         <v>28</v>
       </c>
-      <c r="S49">
-        <v>1386</v>
-      </c>
       <c r="T49" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2348,9 +2300,6 @@
       <c r="R50">
         <v>28</v>
       </c>
-      <c r="S50">
-        <v>1401</v>
-      </c>
       <c r="T50" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2409,9 +2358,6 @@
       <c r="R51">
         <v>42</v>
       </c>
-      <c r="S51">
-        <v>1409</v>
-      </c>
       <c r="T51" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2470,9 +2416,6 @@
       <c r="R52">
         <v>43</v>
       </c>
-      <c r="S52">
-        <v>1422</v>
-      </c>
       <c r="T52" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2531,9 +2474,6 @@
       <c r="R53">
         <v>43</v>
       </c>
-      <c r="S53">
-        <v>1431</v>
-      </c>
       <c r="T53" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2592,9 +2532,6 @@
       <c r="R54">
         <v>58</v>
       </c>
-      <c r="S54">
-        <v>1440</v>
-      </c>
       <c r="T54" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2653,9 +2590,6 @@
       <c r="R55">
         <v>58</v>
       </c>
-      <c r="S55">
-        <v>1445</v>
-      </c>
       <c r="T55" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2714,9 +2648,6 @@
       <c r="R56">
         <v>58</v>
       </c>
-      <c r="S56">
-        <v>1451</v>
-      </c>
       <c r="T56" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -2775,10 +2706,68 @@
       <c r="R57">
         <v>58</v>
       </c>
-      <c r="S57">
-        <v>1451</v>
-      </c>
       <c r="T57" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1113</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>343</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>1456</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>1095</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>17</v>
+      </c>
+      <c r="O58">
+        <v>568</v>
+      </c>
+      <c r="P58">
+        <v>597</v>
+      </c>
+      <c r="Q58">
+        <v>29</v>
+      </c>
+      <c r="R58">
+        <v>58</v>
+      </c>
+      <c r="S58">
+        <v>204</v>
+      </c>
+      <c r="T58" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2773,6 +2773,67 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>1116</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>345</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>1461</v>
+      </c>
+      <c r="H59">
+        <v>23</v>
+      </c>
+      <c r="I59">
+        <v>1118</v>
+      </c>
+      <c r="J59">
+        <v>7</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>18</v>
+      </c>
+      <c r="O59">
+        <v>570</v>
+      </c>
+      <c r="P59">
+        <v>599</v>
+      </c>
+      <c r="Q59">
+        <v>29</v>
+      </c>
+      <c r="R59">
+        <v>44</v>
+      </c>
+      <c r="S59">
+        <v>219</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2834,6 +2834,250 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>1120</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>350</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>1470</v>
+      </c>
+      <c r="H60">
+        <v>24</v>
+      </c>
+      <c r="I60">
+        <v>1142</v>
+      </c>
+      <c r="J60">
+        <v>7</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>18</v>
+      </c>
+      <c r="O60">
+        <v>573</v>
+      </c>
+      <c r="P60">
+        <v>603</v>
+      </c>
+      <c r="Q60">
+        <v>29</v>
+      </c>
+      <c r="R60">
+        <v>44</v>
+      </c>
+      <c r="S60">
+        <v>220</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1121</v>
+      </c>
+      <c r="D61">
+        <v>-2</v>
+      </c>
+      <c r="E61">
+        <v>348</v>
+      </c>
+      <c r="F61">
+        <v>-1</v>
+      </c>
+      <c r="G61">
+        <v>1469</v>
+      </c>
+      <c r="H61">
+        <v>38</v>
+      </c>
+      <c r="I61">
+        <v>1180</v>
+      </c>
+      <c r="J61">
+        <v>7</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>19</v>
+      </c>
+      <c r="O61">
+        <v>573</v>
+      </c>
+      <c r="P61">
+        <v>485</v>
+      </c>
+      <c r="Q61">
+        <v>29</v>
+      </c>
+      <c r="R61">
+        <v>44</v>
+      </c>
+      <c r="S61">
+        <v>338</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>1123</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>349</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>1472</v>
+      </c>
+      <c r="H62">
+        <v>34</v>
+      </c>
+      <c r="I62">
+        <v>1214</v>
+      </c>
+      <c r="J62">
+        <v>9</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>19</v>
+      </c>
+      <c r="O62">
+        <v>574</v>
+      </c>
+      <c r="P62">
+        <v>486</v>
+      </c>
+      <c r="Q62">
+        <v>29</v>
+      </c>
+      <c r="R62">
+        <v>44</v>
+      </c>
+      <c r="S62">
+        <v>339</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1125</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>349</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1474</v>
+      </c>
+      <c r="H63">
+        <v>15</v>
+      </c>
+      <c r="I63">
+        <v>1229</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>19</v>
+      </c>
+      <c r="O63">
+        <v>575</v>
+      </c>
+      <c r="P63">
+        <v>486</v>
+      </c>
+      <c r="Q63">
+        <v>29</v>
+      </c>
+      <c r="R63">
+        <v>44</v>
+      </c>
+      <c r="S63">
+        <v>339</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3078,6 +3078,67 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>1128</v>
+      </c>
+      <c r="D64">
+        <v>-1</v>
+      </c>
+      <c r="E64">
+        <v>348</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>1476</v>
+      </c>
+      <c r="H64">
+        <v>12</v>
+      </c>
+      <c r="I64">
+        <v>1241</v>
+      </c>
+      <c r="J64">
+        <v>7</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>19</v>
+      </c>
+      <c r="O64">
+        <v>576</v>
+      </c>
+      <c r="P64">
+        <v>472</v>
+      </c>
+      <c r="Q64">
+        <v>15</v>
+      </c>
+      <c r="R64">
+        <v>59</v>
+      </c>
+      <c r="S64">
+        <v>354</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3139,6 +3139,250 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>1131</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>348</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>1479</v>
+      </c>
+      <c r="H65">
+        <v>11</v>
+      </c>
+      <c r="I65">
+        <v>1252</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>19</v>
+      </c>
+      <c r="O65">
+        <v>577</v>
+      </c>
+      <c r="P65">
+        <v>473</v>
+      </c>
+      <c r="Q65">
+        <v>15</v>
+      </c>
+      <c r="R65">
+        <v>59</v>
+      </c>
+      <c r="S65">
+        <v>355</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>1133</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>352</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>1485</v>
+      </c>
+      <c r="H66">
+        <v>11</v>
+      </c>
+      <c r="I66">
+        <v>1263</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>20</v>
+      </c>
+      <c r="O66">
+        <v>564</v>
+      </c>
+      <c r="P66">
+        <v>475</v>
+      </c>
+      <c r="Q66">
+        <v>15</v>
+      </c>
+      <c r="R66">
+        <v>59</v>
+      </c>
+      <c r="S66">
+        <v>356</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>1135</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>352</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>1487</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1266</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>20</v>
+      </c>
+      <c r="O67">
+        <v>565</v>
+      </c>
+      <c r="P67">
+        <v>476</v>
+      </c>
+      <c r="Q67">
+        <v>15</v>
+      </c>
+      <c r="R67">
+        <v>59</v>
+      </c>
+      <c r="S67">
+        <v>357</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1136</v>
+      </c>
+      <c r="D68">
+        <v>-1</v>
+      </c>
+      <c r="E68">
+        <v>351</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1487</v>
+      </c>
+      <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68">
+        <v>1276</v>
+      </c>
+      <c r="J68">
+        <v>7</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>20</v>
+      </c>
+      <c r="O68">
+        <v>565</v>
+      </c>
+      <c r="P68">
+        <v>476</v>
+      </c>
+      <c r="Q68">
+        <v>15</v>
+      </c>
+      <c r="R68">
+        <v>59</v>
+      </c>
+      <c r="S68">
+        <v>357</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -3351,7 +3351,7 @@
         <v>1276</v>
       </c>
       <c r="J68">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L68">
         <v>0</v>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3383,6 +3383,250 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1136</v>
+      </c>
+      <c r="D69">
+        <v>-1</v>
+      </c>
+      <c r="E69">
+        <v>350</v>
+      </c>
+      <c r="F69">
+        <v>-1</v>
+      </c>
+      <c r="G69">
+        <v>1486</v>
+      </c>
+      <c r="H69">
+        <v>26</v>
+      </c>
+      <c r="I69">
+        <v>1302</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>20</v>
+      </c>
+      <c r="O69">
+        <v>565</v>
+      </c>
+      <c r="P69">
+        <v>476</v>
+      </c>
+      <c r="Q69">
+        <v>15</v>
+      </c>
+      <c r="R69">
+        <v>59</v>
+      </c>
+      <c r="S69">
+        <v>357</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1137</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>351</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>1488</v>
+      </c>
+      <c r="H70">
+        <v>14</v>
+      </c>
+      <c r="I70">
+        <v>1316</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>21</v>
+      </c>
+      <c r="O70">
+        <v>565</v>
+      </c>
+      <c r="P70">
+        <v>476</v>
+      </c>
+      <c r="Q70">
+        <v>15</v>
+      </c>
+      <c r="R70">
+        <v>60</v>
+      </c>
+      <c r="S70">
+        <v>357</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1138</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>351</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1489</v>
+      </c>
+      <c r="H71">
+        <v>16</v>
+      </c>
+      <c r="I71">
+        <v>1332</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>21</v>
+      </c>
+      <c r="O71">
+        <v>565</v>
+      </c>
+      <c r="P71">
+        <v>476</v>
+      </c>
+      <c r="Q71">
+        <v>15</v>
+      </c>
+      <c r="R71">
+        <v>60</v>
+      </c>
+      <c r="S71">
+        <v>357</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>1140</v>
+      </c>
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="E72">
+        <v>350</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1490</v>
+      </c>
+      <c r="H72">
+        <v>15</v>
+      </c>
+      <c r="I72">
+        <v>1347</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>21</v>
+      </c>
+      <c r="O72">
+        <v>566</v>
+      </c>
+      <c r="P72">
+        <v>477</v>
+      </c>
+      <c r="Q72">
+        <v>15</v>
+      </c>
+      <c r="R72">
+        <v>60</v>
+      </c>
+      <c r="S72">
+        <v>358</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3627,6 +3627,67 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1141</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>351</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1492</v>
+      </c>
+      <c r="H73">
+        <v>21</v>
+      </c>
+      <c r="I73">
+        <v>1368</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>21</v>
+      </c>
+      <c r="O73">
+        <v>567</v>
+      </c>
+      <c r="P73">
+        <v>477</v>
+      </c>
+      <c r="Q73">
+        <v>15</v>
+      </c>
+      <c r="R73">
+        <v>60</v>
+      </c>
+      <c r="S73">
+        <v>358</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3688,6 +3688,189 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>1143</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>351</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1494</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>1371</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>21</v>
+      </c>
+      <c r="O74">
+        <v>568</v>
+      </c>
+      <c r="P74">
+        <v>478</v>
+      </c>
+      <c r="Q74">
+        <v>15</v>
+      </c>
+      <c r="R74">
+        <v>60</v>
+      </c>
+      <c r="S74">
+        <v>359</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>1146</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>351</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>1497</v>
+      </c>
+      <c r="H75">
+        <v>15</v>
+      </c>
+      <c r="I75">
+        <v>1386</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>21</v>
+      </c>
+      <c r="O75">
+        <v>572</v>
+      </c>
+      <c r="P75">
+        <v>475</v>
+      </c>
+      <c r="Q75">
+        <v>17</v>
+      </c>
+      <c r="R75">
+        <v>67</v>
+      </c>
+      <c r="S75">
+        <v>366</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1146</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>351</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1497</v>
+      </c>
+      <c r="H76">
+        <v>12</v>
+      </c>
+      <c r="I76">
+        <v>1398</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>21</v>
+      </c>
+      <c r="O76">
+        <v>572</v>
+      </c>
+      <c r="P76">
+        <v>475</v>
+      </c>
+      <c r="Q76">
+        <v>17</v>
+      </c>
+      <c r="R76">
+        <v>67</v>
+      </c>
+      <c r="S76">
+        <v>366</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3871,6 +3871,372 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1146</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>351</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1497</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>1402</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>21</v>
+      </c>
+      <c r="O77">
+        <v>572</v>
+      </c>
+      <c r="P77">
+        <v>475</v>
+      </c>
+      <c r="Q77">
+        <v>17</v>
+      </c>
+      <c r="R77">
+        <v>67</v>
+      </c>
+      <c r="S77">
+        <v>366</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1146</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>351</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1497</v>
+      </c>
+      <c r="H78">
+        <v>9</v>
+      </c>
+      <c r="I78">
+        <v>1411</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>21</v>
+      </c>
+      <c r="O78">
+        <v>572</v>
+      </c>
+      <c r="P78">
+        <v>475</v>
+      </c>
+      <c r="Q78">
+        <v>17</v>
+      </c>
+      <c r="R78">
+        <v>67</v>
+      </c>
+      <c r="S78">
+        <v>366</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1147</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>351</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1498</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
+      </c>
+      <c r="I79">
+        <v>1421</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>21</v>
+      </c>
+      <c r="O79">
+        <v>572</v>
+      </c>
+      <c r="P79">
+        <v>468</v>
+      </c>
+      <c r="Q79">
+        <v>13</v>
+      </c>
+      <c r="R79">
+        <v>74</v>
+      </c>
+      <c r="S79">
+        <v>370</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1147</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>351</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1498</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
+      </c>
+      <c r="I80">
+        <v>1428</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>21</v>
+      </c>
+      <c r="O80">
+        <v>572</v>
+      </c>
+      <c r="P80">
+        <v>468</v>
+      </c>
+      <c r="Q80">
+        <v>13</v>
+      </c>
+      <c r="R80">
+        <v>74</v>
+      </c>
+      <c r="S80">
+        <v>370</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1148</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>351</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1499</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>1433</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>21</v>
+      </c>
+      <c r="O81">
+        <v>572</v>
+      </c>
+      <c r="P81">
+        <v>469</v>
+      </c>
+      <c r="Q81">
+        <v>13</v>
+      </c>
+      <c r="R81">
+        <v>74</v>
+      </c>
+      <c r="S81">
+        <v>370</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1148</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>351</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1499</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>1433</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>21</v>
+      </c>
+      <c r="O82">
+        <v>572</v>
+      </c>
+      <c r="P82">
+        <v>469</v>
+      </c>
+      <c r="Q82">
+        <v>13</v>
+      </c>
+      <c r="R82">
+        <v>74</v>
+      </c>
+      <c r="S82">
+        <v>370</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2659,10 +2659,10 @@
         <v>43944</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2671,10 +2671,10 @@
         <v>340</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G57">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="H57">
         <v>29</v>
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -2732,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="G58">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="H58">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -2793,7 +2793,7 @@
         <v>5</v>
       </c>
       <c r="G59">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="H59">
         <v>23</v>
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -2854,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="G60">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="H60">
         <v>24</v>
@@ -2903,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="D61">
         <v>-2</v>
@@ -2915,7 +2915,7 @@
         <v>-1</v>
       </c>
       <c r="G61">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="H61">
         <v>38</v>
@@ -2964,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2976,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="H62">
         <v>34</v>
@@ -3025,7 +3025,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="H63">
         <v>15</v>
@@ -3086,7 +3086,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="D64">
         <v>-1</v>
@@ -3098,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="G64">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="H64">
         <v>12</v>
@@ -3147,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="H65">
         <v>11</v>
@@ -3208,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -3220,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="G66">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="H66">
         <v>11</v>
@@ -3269,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>2</v>
       </c>
       <c r="G67">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="D68">
         <v>-1</v>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="H68">
         <v>10</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="D69">
         <v>-1</v>
@@ -3403,7 +3403,7 @@
         <v>-1</v>
       </c>
       <c r="G69">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="H69">
         <v>26</v>
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="G70">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="H70">
         <v>14</v>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="H71">
         <v>16</v>
@@ -3574,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="D72">
         <v>-1</v>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="H72">
         <v>15</v>
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="H73">
         <v>21</v>
@@ -3696,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -3757,7 +3757,7 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="H75">
         <v>15</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="H76">
         <v>12</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="H78">
         <v>9</v>
@@ -4001,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="H79">
         <v>10</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="H80">
         <v>7</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="H81">
         <v>5</v>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4232,6 +4232,616 @@
         <v>370</v>
       </c>
       <c r="T82" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1152</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>351</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1503</v>
+      </c>
+      <c r="H83">
+        <v>9</v>
+      </c>
+      <c r="I83">
+        <v>1442</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>21</v>
+      </c>
+      <c r="O83">
+        <v>576</v>
+      </c>
+      <c r="P83">
+        <v>464</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>85</v>
+      </c>
+      <c r="S83">
+        <v>376</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>1152</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>351</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1503</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>1447</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>21</v>
+      </c>
+      <c r="O84">
+        <v>576</v>
+      </c>
+      <c r="P84">
+        <v>464</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <v>85</v>
+      </c>
+      <c r="S84">
+        <v>376</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1152</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>351</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1503</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>1452</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>21</v>
+      </c>
+      <c r="O85">
+        <v>576</v>
+      </c>
+      <c r="P85">
+        <v>464</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>85</v>
+      </c>
+      <c r="S85">
+        <v>376</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1153</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>351</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1504</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>1455</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>21</v>
+      </c>
+      <c r="O86">
+        <v>576</v>
+      </c>
+      <c r="P86">
+        <v>464</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="R86">
+        <v>85</v>
+      </c>
+      <c r="S86">
+        <v>376</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1153</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>351</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1504</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1455</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>21</v>
+      </c>
+      <c r="O87">
+        <v>575</v>
+      </c>
+      <c r="P87">
+        <v>461</v>
+      </c>
+      <c r="Q87">
+        <v>-3</v>
+      </c>
+      <c r="R87">
+        <v>86</v>
+      </c>
+      <c r="S87">
+        <v>381</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>1153</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>351</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1504</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1456</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>21</v>
+      </c>
+      <c r="O88">
+        <v>575</v>
+      </c>
+      <c r="P88">
+        <v>462</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>85</v>
+      </c>
+      <c r="S88">
+        <v>381</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>1153</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>351</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1504</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1456</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>21</v>
+      </c>
+      <c r="O89">
+        <v>575</v>
+      </c>
+      <c r="P89">
+        <v>463</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>85</v>
+      </c>
+      <c r="S89">
+        <v>380</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>1153</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>351</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1504</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>1461</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>21</v>
+      </c>
+      <c r="O90">
+        <v>575</v>
+      </c>
+      <c r="P90">
+        <v>463</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>85</v>
+      </c>
+      <c r="S90">
+        <v>380</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>1153</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>351</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1504</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1462</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>21</v>
+      </c>
+      <c r="O91">
+        <v>575</v>
+      </c>
+      <c r="P91">
+        <v>463</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>85</v>
+      </c>
+      <c r="S91">
+        <v>380</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>1153</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>351</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1504</v>
+      </c>
+      <c r="H92">
+        <v>12</v>
+      </c>
+      <c r="I92">
+        <v>1474</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>22</v>
+      </c>
+      <c r="O92">
+        <v>575</v>
+      </c>
+      <c r="P92">
+        <v>463</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>85</v>
+      </c>
+      <c r="S92">
+        <v>380</v>
+      </c>
+      <c r="T92" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4847,6 +4847,67 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>1153</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>351</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1504</v>
+      </c>
+      <c r="H93">
+        <v>7</v>
+      </c>
+      <c r="I93">
+        <v>1481</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>22</v>
+      </c>
+      <c r="O93">
+        <v>575</v>
+      </c>
+      <c r="P93">
+        <v>463</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>85</v>
+      </c>
+      <c r="S93">
+        <v>380</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4908,6 +4908,311 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>1153</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>351</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1504</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>1481</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>22</v>
+      </c>
+      <c r="O94">
+        <v>575</v>
+      </c>
+      <c r="P94">
+        <v>463</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>85</v>
+      </c>
+      <c r="S94">
+        <v>380</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1153</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>351</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1504</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1481</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>22</v>
+      </c>
+      <c r="O95">
+        <v>575</v>
+      </c>
+      <c r="P95">
+        <v>463</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>85</v>
+      </c>
+      <c r="S95">
+        <v>380</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>1153</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>351</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1504</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1481</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>22</v>
+      </c>
+      <c r="O96">
+        <v>575</v>
+      </c>
+      <c r="P96">
+        <v>463</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>85</v>
+      </c>
+      <c r="S96">
+        <v>380</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1153</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>351</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1504</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1481</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>22</v>
+      </c>
+      <c r="O97">
+        <v>575</v>
+      </c>
+      <c r="P97">
+        <v>463</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>85</v>
+      </c>
+      <c r="S97">
+        <v>380</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1153</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>351</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1504</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1481</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>22</v>
+      </c>
+      <c r="O98">
+        <v>575</v>
+      </c>
+      <c r="P98">
+        <v>459</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>87</v>
+      </c>
+      <c r="S98">
+        <v>383</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5213,6 +5213,1043 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>1153</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>351</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>1504</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1481</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>22</v>
+      </c>
+      <c r="O99">
+        <v>575</v>
+      </c>
+      <c r="P99">
+        <v>459</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>87</v>
+      </c>
+      <c r="S99">
+        <v>383</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>1153</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>351</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1504</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1481</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>22</v>
+      </c>
+      <c r="O100">
+        <v>575</v>
+      </c>
+      <c r="P100">
+        <v>459</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>87</v>
+      </c>
+      <c r="S100">
+        <v>383</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>1153</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>351</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1504</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1481</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>22</v>
+      </c>
+      <c r="O101">
+        <v>575</v>
+      </c>
+      <c r="P101">
+        <v>459</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>87</v>
+      </c>
+      <c r="S101">
+        <v>383</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>1153</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>351</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1504</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1481</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>22</v>
+      </c>
+      <c r="O102">
+        <v>575</v>
+      </c>
+      <c r="P102">
+        <v>459</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>87</v>
+      </c>
+      <c r="S102">
+        <v>383</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1153</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>351</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1504</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1482</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>22</v>
+      </c>
+      <c r="O103">
+        <v>575</v>
+      </c>
+      <c r="P103">
+        <v>459</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>87</v>
+      </c>
+      <c r="S103">
+        <v>383</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>1153</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>351</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1504</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>1482</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>22</v>
+      </c>
+      <c r="O104">
+        <v>575</v>
+      </c>
+      <c r="P104">
+        <v>459</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>87</v>
+      </c>
+      <c r="S104">
+        <v>383</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1153</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>351</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1504</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>1482</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>22</v>
+      </c>
+      <c r="O105">
+        <v>575</v>
+      </c>
+      <c r="P105">
+        <v>459</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>87</v>
+      </c>
+      <c r="S105">
+        <v>383</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>1153</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>351</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>1504</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>1482</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>22</v>
+      </c>
+      <c r="O106">
+        <v>575</v>
+      </c>
+      <c r="P106">
+        <v>456</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>89</v>
+      </c>
+      <c r="S106">
+        <v>384</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1153</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>351</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>1504</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>1482</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>22</v>
+      </c>
+      <c r="O107">
+        <v>575</v>
+      </c>
+      <c r="P107">
+        <v>456</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>89</v>
+      </c>
+      <c r="S107">
+        <v>384</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1153</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>351</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1504</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>1482</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>22</v>
+      </c>
+      <c r="O108">
+        <v>575</v>
+      </c>
+      <c r="P108">
+        <v>456</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>89</v>
+      </c>
+      <c r="S108">
+        <v>384</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>1153</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>351</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>1504</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1482</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>22</v>
+      </c>
+      <c r="O109">
+        <v>575</v>
+      </c>
+      <c r="P109">
+        <v>456</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>89</v>
+      </c>
+      <c r="S109">
+        <v>384</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>1153</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>351</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>1504</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1482</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>22</v>
+      </c>
+      <c r="O110">
+        <v>575</v>
+      </c>
+      <c r="P110">
+        <v>456</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>89</v>
+      </c>
+      <c r="S110">
+        <v>384</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>1155</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>351</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>1506</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1482</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>22</v>
+      </c>
+      <c r="O111">
+        <v>574</v>
+      </c>
+      <c r="P111">
+        <v>458</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>89</v>
+      </c>
+      <c r="S111">
+        <v>383</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>1155</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>351</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1506</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1482</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>22</v>
+      </c>
+      <c r="O112">
+        <v>575</v>
+      </c>
+      <c r="P112">
+        <v>454</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>89</v>
+      </c>
+      <c r="S112">
+        <v>388</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1156</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>351</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1507</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1482</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>22</v>
+      </c>
+      <c r="O113">
+        <v>576</v>
+      </c>
+      <c r="P113">
+        <v>454</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>89</v>
+      </c>
+      <c r="S113">
+        <v>388</v>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>1156</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>351</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1507</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1482</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>22</v>
+      </c>
+      <c r="O114">
+        <v>578</v>
+      </c>
+      <c r="P114">
+        <v>454</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>89</v>
+      </c>
+      <c r="S114">
+        <v>388</v>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>1158</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>351</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>1509</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>1482</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>22</v>
+      </c>
+      <c r="O115">
+        <v>580</v>
+      </c>
+      <c r="P115">
+        <v>454</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>89</v>
+      </c>
+      <c r="S115">
+        <v>388</v>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T115"/>
+  <dimension ref="A1:U135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,6 +462,11 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>quarantinedCases</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>tag</t>
         </is>
       </c>
@@ -482,7 +487,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -504,7 +509,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -526,7 +531,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -548,7 +553,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -570,7 +575,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -592,7 +597,7 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -614,7 +619,7 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -636,7 +641,7 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -658,7 +663,7 @@
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -680,7 +685,7 @@
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -702,7 +707,7 @@
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -724,7 +729,7 @@
       <c r="G13">
         <v>5</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -746,7 +751,7 @@
       <c r="G14">
         <v>5</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -768,7 +773,7 @@
       <c r="G15">
         <v>5</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -790,7 +795,7 @@
       <c r="G16">
         <v>5</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -812,7 +817,7 @@
       <c r="G17">
         <v>6</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -834,7 +839,7 @@
       <c r="G18">
         <v>8</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -856,7 +861,7 @@
       <c r="G19">
         <v>8</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -878,7 +883,7 @@
       <c r="G20">
         <v>12</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -900,7 +905,7 @@
       <c r="G21">
         <v>20</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -922,7 +927,7 @@
       <c r="G22">
         <v>28</v>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -944,7 +949,7 @@
       <c r="G23">
         <v>39</v>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -966,7 +971,7 @@
       <c r="G24">
         <v>52</v>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -988,7 +993,7 @@
       <c r="G25">
         <v>66</v>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1010,7 +1015,7 @@
       <c r="G26">
         <v>102</v>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1050,7 +1055,7 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1090,7 +1095,7 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1130,7 +1135,7 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1173,7 +1178,7 @@
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1216,7 +1221,7 @@
       <c r="L31">
         <v>2</v>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1265,7 +1270,7 @@
       <c r="N32">
         <v>1</v>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1314,7 +1319,7 @@
       <c r="N33">
         <v>1</v>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1372,7 +1377,7 @@
       <c r="R34">
         <v>6</v>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1430,7 +1435,7 @@
       <c r="R35">
         <v>7</v>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1488,7 +1493,7 @@
       <c r="R36">
         <v>8</v>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1546,7 +1551,7 @@
       <c r="R37">
         <v>9</v>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1604,7 +1609,7 @@
       <c r="R38">
         <v>10</v>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1662,7 +1667,7 @@
       <c r="R39">
         <v>10</v>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1720,7 +1725,7 @@
       <c r="R40">
         <v>22</v>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1778,7 +1783,7 @@
       <c r="R41">
         <v>23</v>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1836,7 +1841,7 @@
       <c r="R42">
         <v>24</v>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1894,7 +1899,7 @@
       <c r="R43">
         <v>25</v>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1952,7 +1957,7 @@
       <c r="R44">
         <v>26</v>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2010,7 +2015,7 @@
       <c r="R45">
         <v>26</v>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2068,7 +2073,7 @@
       <c r="R46">
         <v>27</v>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2126,7 +2131,7 @@
       <c r="R47">
         <v>27</v>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2184,7 +2189,7 @@
       <c r="R48">
         <v>27</v>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2242,7 +2247,7 @@
       <c r="R49">
         <v>28</v>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2300,7 +2305,7 @@
       <c r="R50">
         <v>28</v>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2358,7 +2363,7 @@
       <c r="R51">
         <v>42</v>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2416,7 +2421,7 @@
       <c r="R52">
         <v>43</v>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2474,7 +2479,7 @@
       <c r="R53">
         <v>43</v>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2532,7 +2537,7 @@
       <c r="R54">
         <v>58</v>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2590,7 +2595,7 @@
       <c r="R55">
         <v>58</v>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2648,7 +2653,7 @@
       <c r="R56">
         <v>58</v>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2706,7 +2711,7 @@
       <c r="R57">
         <v>58</v>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2767,7 +2772,7 @@
       <c r="S58">
         <v>204</v>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2828,7 +2833,7 @@
       <c r="S59">
         <v>219</v>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2889,7 +2894,7 @@
       <c r="S60">
         <v>220</v>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2950,7 +2955,7 @@
       <c r="S61">
         <v>338</v>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3011,7 +3016,7 @@
       <c r="S62">
         <v>339</v>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3072,7 +3077,7 @@
       <c r="S63">
         <v>339</v>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3133,7 +3138,7 @@
       <c r="S64">
         <v>354</v>
       </c>
-      <c r="T64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3194,7 +3199,7 @@
       <c r="S65">
         <v>355</v>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3255,7 +3260,7 @@
       <c r="S66">
         <v>356</v>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3316,7 +3321,7 @@
       <c r="S67">
         <v>357</v>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3377,7 +3382,7 @@
       <c r="S68">
         <v>357</v>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3438,7 +3443,7 @@
       <c r="S69">
         <v>357</v>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3499,7 +3504,7 @@
       <c r="S70">
         <v>357</v>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3560,7 +3565,7 @@
       <c r="S71">
         <v>357</v>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3621,7 +3626,7 @@
       <c r="S72">
         <v>358</v>
       </c>
-      <c r="T72" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3682,7 +3687,7 @@
       <c r="S73">
         <v>358</v>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3693,16 +3698,16 @@
         <v>43961</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E74">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -3743,7 +3748,7 @@
       <c r="S74">
         <v>359</v>
       </c>
-      <c r="T74" t="inlineStr">
+      <c r="U74" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3757,13 +3762,13 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F75">
         <v>3</v>
@@ -3804,7 +3809,7 @@
       <c r="S75">
         <v>366</v>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3818,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3865,7 +3870,7 @@
       <c r="S76">
         <v>366</v>
       </c>
-      <c r="T76" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3879,13 +3884,13 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3926,7 +3931,7 @@
       <c r="S77">
         <v>366</v>
       </c>
-      <c r="T77" t="inlineStr">
+      <c r="U77" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3940,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3987,7 +3992,7 @@
       <c r="S78">
         <v>366</v>
       </c>
-      <c r="T78" t="inlineStr">
+      <c r="U78" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4001,13 +4006,13 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -4048,7 +4053,7 @@
       <c r="S79">
         <v>370</v>
       </c>
-      <c r="T79" t="inlineStr">
+      <c r="U79" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4062,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4109,7 +4114,7 @@
       <c r="S80">
         <v>370</v>
       </c>
-      <c r="T80" t="inlineStr">
+      <c r="U80" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4123,13 +4128,13 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4170,7 +4175,7 @@
       <c r="S81">
         <v>370</v>
       </c>
-      <c r="T81" t="inlineStr">
+      <c r="U81" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4184,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4231,7 +4236,7 @@
       <c r="S82">
         <v>370</v>
       </c>
-      <c r="T82" t="inlineStr">
+      <c r="U82" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4245,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4292,7 +4297,7 @@
       <c r="S83">
         <v>376</v>
       </c>
-      <c r="T83" t="inlineStr">
+      <c r="U83" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4306,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4353,7 +4358,7 @@
       <c r="S84">
         <v>376</v>
       </c>
-      <c r="T84" t="inlineStr">
+      <c r="U84" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4367,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4414,7 +4419,7 @@
       <c r="S85">
         <v>376</v>
       </c>
-      <c r="T85" t="inlineStr">
+      <c r="U85" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4428,13 +4433,13 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4475,7 +4480,7 @@
       <c r="S86">
         <v>376</v>
       </c>
-      <c r="T86" t="inlineStr">
+      <c r="U86" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4489,13 +4494,13 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4536,7 +4541,7 @@
       <c r="S87">
         <v>381</v>
       </c>
-      <c r="T87" t="inlineStr">
+      <c r="U87" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4550,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4597,7 +4602,7 @@
       <c r="S88">
         <v>381</v>
       </c>
-      <c r="T88" t="inlineStr">
+      <c r="U88" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4611,13 +4616,13 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4658,7 +4663,7 @@
       <c r="S89">
         <v>380</v>
       </c>
-      <c r="T89" t="inlineStr">
+      <c r="U89" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4672,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4719,7 +4724,7 @@
       <c r="S90">
         <v>380</v>
       </c>
-      <c r="T90" t="inlineStr">
+      <c r="U90" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4733,13 +4738,13 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4780,7 +4785,7 @@
       <c r="S91">
         <v>380</v>
       </c>
-      <c r="T91" t="inlineStr">
+      <c r="U91" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4794,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4841,7 +4846,7 @@
       <c r="S92">
         <v>380</v>
       </c>
-      <c r="T92" t="inlineStr">
+      <c r="U92" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4855,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4902,7 +4907,7 @@
       <c r="S93">
         <v>380</v>
       </c>
-      <c r="T93" t="inlineStr">
+      <c r="U93" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4916,13 +4921,13 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4963,7 +4968,7 @@
       <c r="S94">
         <v>380</v>
       </c>
-      <c r="T94" t="inlineStr">
+      <c r="U94" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4977,13 +4982,13 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5024,7 +5029,7 @@
       <c r="S95">
         <v>380</v>
       </c>
-      <c r="T95" t="inlineStr">
+      <c r="U95" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5038,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -5085,7 +5090,7 @@
       <c r="S96">
         <v>380</v>
       </c>
-      <c r="T96" t="inlineStr">
+      <c r="U96" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5099,13 +5104,13 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5146,7 +5151,7 @@
       <c r="S97">
         <v>380</v>
       </c>
-      <c r="T97" t="inlineStr">
+      <c r="U97" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5160,13 +5165,13 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -5207,7 +5212,7 @@
       <c r="S98">
         <v>383</v>
       </c>
-      <c r="T98" t="inlineStr">
+      <c r="U98" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5221,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5268,7 +5273,7 @@
       <c r="S99">
         <v>383</v>
       </c>
-      <c r="T99" t="inlineStr">
+      <c r="U99" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5282,13 +5287,13 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -5329,7 +5334,7 @@
       <c r="S100">
         <v>383</v>
       </c>
-      <c r="T100" t="inlineStr">
+      <c r="U100" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5343,13 +5348,13 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -5390,7 +5395,7 @@
       <c r="S101">
         <v>383</v>
       </c>
-      <c r="T101" t="inlineStr">
+      <c r="U101" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5404,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -5451,7 +5456,7 @@
       <c r="S102">
         <v>383</v>
       </c>
-      <c r="T102" t="inlineStr">
+      <c r="U102" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5465,13 +5470,13 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -5512,7 +5517,7 @@
       <c r="S103">
         <v>383</v>
       </c>
-      <c r="T103" t="inlineStr">
+      <c r="U103" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5526,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -5573,7 +5578,7 @@
       <c r="S104">
         <v>383</v>
       </c>
-      <c r="T104" t="inlineStr">
+      <c r="U104" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5587,13 +5592,13 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -5634,7 +5639,7 @@
       <c r="S105">
         <v>383</v>
       </c>
-      <c r="T105" t="inlineStr">
+      <c r="U105" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5648,13 +5653,13 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5695,7 +5700,7 @@
       <c r="S106">
         <v>384</v>
       </c>
-      <c r="T106" t="inlineStr">
+      <c r="U106" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5709,13 +5714,13 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -5756,7 +5761,7 @@
       <c r="S107">
         <v>384</v>
       </c>
-      <c r="T107" t="inlineStr">
+      <c r="U107" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5770,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5817,7 +5822,7 @@
       <c r="S108">
         <v>384</v>
       </c>
-      <c r="T108" t="inlineStr">
+      <c r="U108" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5831,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5878,7 +5883,7 @@
       <c r="S109">
         <v>384</v>
       </c>
-      <c r="T109" t="inlineStr">
+      <c r="U109" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5892,13 +5897,13 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5939,7 +5944,7 @@
       <c r="S110">
         <v>384</v>
       </c>
-      <c r="T110" t="inlineStr">
+      <c r="U110" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5953,13 +5958,13 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -6000,7 +6005,7 @@
       <c r="S111">
         <v>383</v>
       </c>
-      <c r="T111" t="inlineStr">
+      <c r="U111" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6014,13 +6019,13 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -6061,7 +6066,7 @@
       <c r="S112">
         <v>388</v>
       </c>
-      <c r="T112" t="inlineStr">
+      <c r="U112" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6075,13 +6080,13 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -6122,7 +6127,7 @@
       <c r="S113">
         <v>388</v>
       </c>
-      <c r="T113" t="inlineStr">
+      <c r="U113" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6136,13 +6141,13 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -6183,7 +6188,7 @@
       <c r="S114">
         <v>388</v>
       </c>
-      <c r="T114" t="inlineStr">
+      <c r="U114" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6197,13 +6202,13 @@
         <v>2</v>
       </c>
       <c r="C115">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -6244,7 +6249,1281 @@
       <c r="S115">
         <v>388</v>
       </c>
-      <c r="T115" t="inlineStr">
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>1161</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>350</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>1511</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1482</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>22</v>
+      </c>
+      <c r="O116">
+        <v>582</v>
+      </c>
+      <c r="P116">
+        <v>454</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>89</v>
+      </c>
+      <c r="S116">
+        <v>388</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>1163</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>350</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>1513</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1482</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>22</v>
+      </c>
+      <c r="O117">
+        <v>584</v>
+      </c>
+      <c r="P117">
+        <v>454</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>89</v>
+      </c>
+      <c r="S117">
+        <v>388</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>1165</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>350</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>1515</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>1483</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>22</v>
+      </c>
+      <c r="O118">
+        <v>586</v>
+      </c>
+      <c r="P118">
+        <v>454</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>89</v>
+      </c>
+      <c r="S118">
+        <v>388</v>
+      </c>
+      <c r="T118">
+        <v>9</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1166</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>350</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1516</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>1483</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>22</v>
+      </c>
+      <c r="O119">
+        <v>587</v>
+      </c>
+      <c r="P119">
+        <v>454</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>89</v>
+      </c>
+      <c r="S119">
+        <v>388</v>
+      </c>
+      <c r="T119">
+        <v>10</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>1166</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>350</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>1516</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1483</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>22</v>
+      </c>
+      <c r="O120">
+        <v>587</v>
+      </c>
+      <c r="P120">
+        <v>454</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>89</v>
+      </c>
+      <c r="S120">
+        <v>388</v>
+      </c>
+      <c r="T120">
+        <v>10</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>1169</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>350</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>1519</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1484</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>22</v>
+      </c>
+      <c r="O121">
+        <v>588</v>
+      </c>
+      <c r="P121">
+        <v>454</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>89</v>
+      </c>
+      <c r="S121">
+        <v>388</v>
+      </c>
+      <c r="T121">
+        <v>13</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1170</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>350</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1520</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>1484</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>22</v>
+      </c>
+      <c r="O122">
+        <v>589</v>
+      </c>
+      <c r="P122">
+        <v>454</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>89</v>
+      </c>
+      <c r="S122">
+        <v>388</v>
+      </c>
+      <c r="T122">
+        <v>14</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>1172</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>350</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>1522</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1484</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>22</v>
+      </c>
+      <c r="O123">
+        <v>591</v>
+      </c>
+      <c r="P123">
+        <v>454</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>89</v>
+      </c>
+      <c r="S123">
+        <v>388</v>
+      </c>
+      <c r="T123">
+        <v>16</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>1176</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>350</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <v>1526</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1484</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>22</v>
+      </c>
+      <c r="O124">
+        <v>595</v>
+      </c>
+      <c r="P124">
+        <v>454</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>89</v>
+      </c>
+      <c r="S124">
+        <v>388</v>
+      </c>
+      <c r="T124">
+        <v>20</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>1178</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>350</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>1528</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>1484</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>22</v>
+      </c>
+      <c r="O125">
+        <v>597</v>
+      </c>
+      <c r="P125">
+        <v>454</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>89</v>
+      </c>
+      <c r="S125">
+        <v>388</v>
+      </c>
+      <c r="T125">
+        <v>22</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>1178</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>350</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>1528</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>1484</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>22</v>
+      </c>
+      <c r="O126">
+        <v>597</v>
+      </c>
+      <c r="P126">
+        <v>454</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>89</v>
+      </c>
+      <c r="S126">
+        <v>388</v>
+      </c>
+      <c r="T126">
+        <v>22</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1178</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>350</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>1528</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>1484</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>22</v>
+      </c>
+      <c r="O127">
+        <v>597</v>
+      </c>
+      <c r="P127">
+        <v>454</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>89</v>
+      </c>
+      <c r="S127">
+        <v>388</v>
+      </c>
+      <c r="T127">
+        <v>22</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>1180</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>350</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>1530</v>
+      </c>
+      <c r="H128">
+        <v>6</v>
+      </c>
+      <c r="I128">
+        <v>1490</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>22</v>
+      </c>
+      <c r="O128">
+        <v>599</v>
+      </c>
+      <c r="P128">
+        <v>454</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>89</v>
+      </c>
+      <c r="S128">
+        <v>388</v>
+      </c>
+      <c r="T128">
+        <v>18</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>1180</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>350</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1530</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>1490</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>22</v>
+      </c>
+      <c r="O129">
+        <v>599</v>
+      </c>
+      <c r="P129">
+        <v>454</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>89</v>
+      </c>
+      <c r="S129">
+        <v>388</v>
+      </c>
+      <c r="T129">
+        <v>18</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>44016</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>1180</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>350</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>1530</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1490</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>22</v>
+      </c>
+      <c r="O130">
+        <v>599</v>
+      </c>
+      <c r="P130">
+        <v>454</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>89</v>
+      </c>
+      <c r="S130">
+        <v>388</v>
+      </c>
+      <c r="T130">
+        <v>18</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>1183</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>350</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>1533</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1490</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>22</v>
+      </c>
+      <c r="O131">
+        <v>602</v>
+      </c>
+      <c r="P131">
+        <v>454</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>89</v>
+      </c>
+      <c r="S131">
+        <v>388</v>
+      </c>
+      <c r="T131">
+        <v>21</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1184</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>350</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1534</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1490</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>22</v>
+      </c>
+      <c r="O132">
+        <v>603</v>
+      </c>
+      <c r="P132">
+        <v>454</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>89</v>
+      </c>
+      <c r="S132">
+        <v>388</v>
+      </c>
+      <c r="T132">
+        <v>22</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>1186</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>350</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>1536</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>1492</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>22</v>
+      </c>
+      <c r="O133">
+        <v>605</v>
+      </c>
+      <c r="P133">
+        <v>454</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>89</v>
+      </c>
+      <c r="S133">
+        <v>388</v>
+      </c>
+      <c r="T133">
+        <v>22</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1187</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>350</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1537</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1492</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>22</v>
+      </c>
+      <c r="O134">
+        <v>606</v>
+      </c>
+      <c r="P134">
+        <v>454</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>89</v>
+      </c>
+      <c r="S134">
+        <v>388</v>
+      </c>
+      <c r="T134">
+        <v>23</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>1190</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>350</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>1540</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>1494</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>22</v>
+      </c>
+      <c r="O135">
+        <v>609</v>
+      </c>
+      <c r="P135">
+        <v>454</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>89</v>
+      </c>
+      <c r="S135">
+        <v>388</v>
+      </c>
+      <c r="T135">
+        <v>24</v>
+      </c>
+      <c r="U135" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U135"/>
+  <dimension ref="A1:U170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7529,6 +7529,2246 @@
         </is>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>1192</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>350</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>1542</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136">
+        <v>1497</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>22</v>
+      </c>
+      <c r="O136">
+        <v>611</v>
+      </c>
+      <c r="P136">
+        <v>454</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>89</v>
+      </c>
+      <c r="S136">
+        <v>388</v>
+      </c>
+      <c r="T136">
+        <v>23</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>44023</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1193</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>350</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1543</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>1497</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>22</v>
+      </c>
+      <c r="O137">
+        <v>612</v>
+      </c>
+      <c r="P137">
+        <v>454</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>89</v>
+      </c>
+      <c r="S137">
+        <v>388</v>
+      </c>
+      <c r="T137">
+        <v>24</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>44024</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1194</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>350</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1544</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>1497</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>22</v>
+      </c>
+      <c r="O138">
+        <v>613</v>
+      </c>
+      <c r="P138">
+        <v>454</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>89</v>
+      </c>
+      <c r="S138">
+        <v>388</v>
+      </c>
+      <c r="T138">
+        <v>25</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>1194</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>350</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>1544</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1497</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>22</v>
+      </c>
+      <c r="O139">
+        <v>613</v>
+      </c>
+      <c r="P139">
+        <v>454</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>89</v>
+      </c>
+      <c r="S139">
+        <v>388</v>
+      </c>
+      <c r="T139">
+        <v>25</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1195</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>350</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1545</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>1498</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>22</v>
+      </c>
+      <c r="O140">
+        <v>614</v>
+      </c>
+      <c r="P140">
+        <v>454</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>89</v>
+      </c>
+      <c r="S140">
+        <v>388</v>
+      </c>
+      <c r="T140">
+        <v>25</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>1197</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>350</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>1547</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>1498</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>22</v>
+      </c>
+      <c r="O141">
+        <v>616</v>
+      </c>
+      <c r="P141">
+        <v>454</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>89</v>
+      </c>
+      <c r="S141">
+        <v>388</v>
+      </c>
+      <c r="T141">
+        <v>27</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1198</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>350</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1548</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>1499</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>22</v>
+      </c>
+      <c r="O142">
+        <v>617</v>
+      </c>
+      <c r="P142">
+        <v>454</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>89</v>
+      </c>
+      <c r="S142">
+        <v>388</v>
+      </c>
+      <c r="T142">
+        <v>27</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1199</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>350</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1549</v>
+      </c>
+      <c r="H143">
+        <v>7</v>
+      </c>
+      <c r="I143">
+        <v>1506</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>22</v>
+      </c>
+      <c r="O143">
+        <v>618</v>
+      </c>
+      <c r="P143">
+        <v>454</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>89</v>
+      </c>
+      <c r="S143">
+        <v>388</v>
+      </c>
+      <c r="T143">
+        <v>21</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>44030</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1200</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>350</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1550</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>1506</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>22</v>
+      </c>
+      <c r="O144">
+        <v>619</v>
+      </c>
+      <c r="P144">
+        <v>454</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>89</v>
+      </c>
+      <c r="S144">
+        <v>388</v>
+      </c>
+      <c r="T144">
+        <v>22</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>44031</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>1203</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>350</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+      <c r="G145">
+        <v>1553</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>1506</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>22</v>
+      </c>
+      <c r="O145">
+        <v>622</v>
+      </c>
+      <c r="P145">
+        <v>454</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>89</v>
+      </c>
+      <c r="S145">
+        <v>388</v>
+      </c>
+      <c r="T145">
+        <v>25</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1204</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>350</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1554</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1506</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>22</v>
+      </c>
+      <c r="O146">
+        <v>623</v>
+      </c>
+      <c r="P146">
+        <v>454</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>89</v>
+      </c>
+      <c r="S146">
+        <v>389</v>
+      </c>
+      <c r="T146">
+        <v>26</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1205</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>350</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1555</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>1506</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>22</v>
+      </c>
+      <c r="O147">
+        <v>624</v>
+      </c>
+      <c r="P147">
+        <v>454</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>89</v>
+      </c>
+      <c r="S147">
+        <v>389</v>
+      </c>
+      <c r="T147">
+        <v>27</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>1205</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>350</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>1555</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>1506</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>22</v>
+      </c>
+      <c r="O148">
+        <v>624</v>
+      </c>
+      <c r="P148">
+        <v>454</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>89</v>
+      </c>
+      <c r="S148">
+        <v>389</v>
+      </c>
+      <c r="T148">
+        <v>27</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>1205</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>350</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>1555</v>
+      </c>
+      <c r="H149">
+        <v>5</v>
+      </c>
+      <c r="I149">
+        <v>1511</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>22</v>
+      </c>
+      <c r="O149">
+        <v>624</v>
+      </c>
+      <c r="P149">
+        <v>454</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>89</v>
+      </c>
+      <c r="S149">
+        <v>389</v>
+      </c>
+      <c r="T149">
+        <v>22</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1206</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>350</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1556</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>1513</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>22</v>
+      </c>
+      <c r="O150">
+        <v>625</v>
+      </c>
+      <c r="P150">
+        <v>454</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>89</v>
+      </c>
+      <c r="S150">
+        <v>389</v>
+      </c>
+      <c r="T150">
+        <v>21</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>44037</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>1206</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>350</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1556</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1513</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>22</v>
+      </c>
+      <c r="O151">
+        <v>625</v>
+      </c>
+      <c r="P151">
+        <v>454</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>89</v>
+      </c>
+      <c r="S151">
+        <v>389</v>
+      </c>
+      <c r="T151">
+        <v>21</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>44038</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>1206</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>350</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1556</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1513</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>22</v>
+      </c>
+      <c r="O152">
+        <v>625</v>
+      </c>
+      <c r="P152">
+        <v>454</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>89</v>
+      </c>
+      <c r="S152">
+        <v>389</v>
+      </c>
+      <c r="T152">
+        <v>21</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>1206</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>350</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>1556</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1513</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>22</v>
+      </c>
+      <c r="O153">
+        <v>625</v>
+      </c>
+      <c r="P153">
+        <v>454</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>89</v>
+      </c>
+      <c r="S153">
+        <v>389</v>
+      </c>
+      <c r="T153">
+        <v>21</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1207</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>350</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1557</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>1514</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>22</v>
+      </c>
+      <c r="O154">
+        <v>625</v>
+      </c>
+      <c r="P154">
+        <v>454</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>89</v>
+      </c>
+      <c r="S154">
+        <v>389</v>
+      </c>
+      <c r="T154">
+        <v>21</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>1209</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>350</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>1559</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>1514</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>22</v>
+      </c>
+      <c r="O155">
+        <v>627</v>
+      </c>
+      <c r="P155">
+        <v>454</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>89</v>
+      </c>
+      <c r="S155">
+        <v>389</v>
+      </c>
+      <c r="T155">
+        <v>23</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1210</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>350</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1560</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>1514</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>22</v>
+      </c>
+      <c r="O156">
+        <v>628</v>
+      </c>
+      <c r="P156">
+        <v>454</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>89</v>
+      </c>
+      <c r="S156">
+        <v>389</v>
+      </c>
+      <c r="T156">
+        <v>24</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>1210</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>350</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>1560</v>
+      </c>
+      <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157">
+        <v>1518</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>22</v>
+      </c>
+      <c r="O157">
+        <v>628</v>
+      </c>
+      <c r="P157">
+        <v>454</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>89</v>
+      </c>
+      <c r="S157">
+        <v>389</v>
+      </c>
+      <c r="T157">
+        <v>20</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>1212</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>350</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>1562</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>1518</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>22</v>
+      </c>
+      <c r="O158">
+        <v>630</v>
+      </c>
+      <c r="P158">
+        <v>454</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>89</v>
+      </c>
+      <c r="S158">
+        <v>389</v>
+      </c>
+      <c r="T158">
+        <v>22</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>44045</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>1215</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>350</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>1565</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>1518</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>22</v>
+      </c>
+      <c r="O159">
+        <v>633</v>
+      </c>
+      <c r="P159">
+        <v>454</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>89</v>
+      </c>
+      <c r="S159">
+        <v>389</v>
+      </c>
+      <c r="T159">
+        <v>25</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>1217</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>350</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>1567</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>1518</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>22</v>
+      </c>
+      <c r="O160">
+        <v>635</v>
+      </c>
+      <c r="P160">
+        <v>454</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>89</v>
+      </c>
+      <c r="S160">
+        <v>389</v>
+      </c>
+      <c r="T160">
+        <v>27</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1217</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>350</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>1567</v>
+      </c>
+      <c r="H161">
+        <v>5</v>
+      </c>
+      <c r="I161">
+        <v>1523</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>22</v>
+      </c>
+      <c r="O161">
+        <v>635</v>
+      </c>
+      <c r="P161">
+        <v>454</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>89</v>
+      </c>
+      <c r="S161">
+        <v>389</v>
+      </c>
+      <c r="T161">
+        <v>22</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>1219</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>350</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>1569</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>1523</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>22</v>
+      </c>
+      <c r="O162">
+        <v>637</v>
+      </c>
+      <c r="P162">
+        <v>454</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>89</v>
+      </c>
+      <c r="S162">
+        <v>389</v>
+      </c>
+      <c r="T162">
+        <v>24</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>1219</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>350</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>1569</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1524</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>22</v>
+      </c>
+      <c r="O163">
+        <v>638</v>
+      </c>
+      <c r="P163">
+        <v>454</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>89</v>
+      </c>
+      <c r="S163">
+        <v>388</v>
+      </c>
+      <c r="T163">
+        <v>23</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>1219</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>350</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>1569</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>1524</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>22</v>
+      </c>
+      <c r="O164">
+        <v>638</v>
+      </c>
+      <c r="P164">
+        <v>454</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>89</v>
+      </c>
+      <c r="S164">
+        <v>388</v>
+      </c>
+      <c r="T164">
+        <v>23</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>1219</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>350</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>1569</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>1524</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>22</v>
+      </c>
+      <c r="O165">
+        <v>638</v>
+      </c>
+      <c r="P165">
+        <v>454</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>89</v>
+      </c>
+      <c r="S165">
+        <v>388</v>
+      </c>
+      <c r="T165">
+        <v>23</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>1219</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>350</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1569</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>1524</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>22</v>
+      </c>
+      <c r="O166">
+        <v>638</v>
+      </c>
+      <c r="P166">
+        <v>454</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>89</v>
+      </c>
+      <c r="S166">
+        <v>388</v>
+      </c>
+      <c r="T166">
+        <v>23</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>1219</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>350</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1569</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>1526</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>22</v>
+      </c>
+      <c r="O167">
+        <v>638</v>
+      </c>
+      <c r="P167">
+        <v>454</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>89</v>
+      </c>
+      <c r="S167">
+        <v>388</v>
+      </c>
+      <c r="T167">
+        <v>21</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>1224</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>350</v>
+      </c>
+      <c r="F168">
+        <v>5</v>
+      </c>
+      <c r="G168">
+        <v>1574</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>1526</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>22</v>
+      </c>
+      <c r="O168">
+        <v>639</v>
+      </c>
+      <c r="P168">
+        <v>454</v>
+      </c>
+      <c r="Q168">
+        <v>4</v>
+      </c>
+      <c r="R168">
+        <v>89</v>
+      </c>
+      <c r="S168">
+        <v>388</v>
+      </c>
+      <c r="T168">
+        <v>22</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>1225</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>350</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1575</v>
+      </c>
+      <c r="H169">
+        <v>5</v>
+      </c>
+      <c r="I169">
+        <v>1531</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>22</v>
+      </c>
+      <c r="O169">
+        <v>640</v>
+      </c>
+      <c r="P169">
+        <v>454</v>
+      </c>
+      <c r="Q169">
+        <v>8</v>
+      </c>
+      <c r="R169">
+        <v>89</v>
+      </c>
+      <c r="S169">
+        <v>388</v>
+      </c>
+      <c r="T169">
+        <v>18</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B170">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>1238</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>351</v>
+      </c>
+      <c r="F170">
+        <v>14</v>
+      </c>
+      <c r="G170">
+        <v>1589</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>1531</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>22</v>
+      </c>
+      <c r="O170">
+        <v>641</v>
+      </c>
+      <c r="P170">
+        <v>454</v>
+      </c>
+      <c r="Q170">
+        <v>21</v>
+      </c>
+      <c r="R170">
+        <v>89</v>
+      </c>
+      <c r="S170">
+        <v>388</v>
+      </c>
+      <c r="T170">
+        <v>19</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U170"/>
+  <dimension ref="A1:U171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9710,16 +9710,16 @@
         <v>44056</v>
       </c>
       <c r="B170">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C170">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F170">
         <v>14</v>
@@ -9764,6 +9764,70 @@
         <v>19</v>
       </c>
       <c r="U170" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B171">
+        <v>12</v>
+      </c>
+      <c r="C171">
+        <v>1251</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>351</v>
+      </c>
+      <c r="F171">
+        <v>13</v>
+      </c>
+      <c r="G171">
+        <v>1602</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>1531</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>22</v>
+      </c>
+      <c r="O171">
+        <v>641</v>
+      </c>
+      <c r="P171">
+        <v>454</v>
+      </c>
+      <c r="Q171">
+        <v>34</v>
+      </c>
+      <c r="R171">
+        <v>89</v>
+      </c>
+      <c r="S171">
+        <v>388</v>
+      </c>
+      <c r="T171">
+        <v>19</v>
+      </c>
+      <c r="U171" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U171"/>
+  <dimension ref="A1:U175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9734,7 +9734,7 @@
         <v>1531</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1531</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L171">
         <v>0</v>
@@ -9828,6 +9828,262 @@
         <v>19</v>
       </c>
       <c r="U171" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B172">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>1258</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>351</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172">
+        <v>1609</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1531</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>22</v>
+      </c>
+      <c r="O172">
+        <v>641</v>
+      </c>
+      <c r="P172">
+        <v>460</v>
+      </c>
+      <c r="Q172">
+        <v>2</v>
+      </c>
+      <c r="R172">
+        <v>89</v>
+      </c>
+      <c r="S172">
+        <v>421</v>
+      </c>
+      <c r="T172">
+        <v>19</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B173">
+        <v>13</v>
+      </c>
+      <c r="C173">
+        <v>1271</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>351</v>
+      </c>
+      <c r="F173">
+        <v>13</v>
+      </c>
+      <c r="G173">
+        <v>1622</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1531</v>
+      </c>
+      <c r="J173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>22</v>
+      </c>
+      <c r="O173">
+        <v>642</v>
+      </c>
+      <c r="P173">
+        <v>460</v>
+      </c>
+      <c r="Q173">
+        <v>4</v>
+      </c>
+      <c r="R173">
+        <v>89</v>
+      </c>
+      <c r="S173">
+        <v>431</v>
+      </c>
+      <c r="T173">
+        <v>20</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B174">
+        <v>9</v>
+      </c>
+      <c r="C174">
+        <v>1280</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>351</v>
+      </c>
+      <c r="F174">
+        <v>9</v>
+      </c>
+      <c r="G174">
+        <v>1631</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>1531</v>
+      </c>
+      <c r="J174">
+        <v>5</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>22</v>
+      </c>
+      <c r="O174">
+        <v>642</v>
+      </c>
+      <c r="P174">
+        <v>455</v>
+      </c>
+      <c r="Q174">
+        <v>4</v>
+      </c>
+      <c r="R174">
+        <v>89</v>
+      </c>
+      <c r="S174">
+        <v>455</v>
+      </c>
+      <c r="T174">
+        <v>20</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B175">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>1293</v>
+      </c>
+      <c r="D175">
+        <v>-1</v>
+      </c>
+      <c r="E175">
+        <v>350</v>
+      </c>
+      <c r="F175">
+        <v>12</v>
+      </c>
+      <c r="G175">
+        <v>1643</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>1531</v>
+      </c>
+      <c r="J175">
+        <v>6</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>22</v>
+      </c>
+      <c r="O175">
+        <v>642</v>
+      </c>
+      <c r="P175">
+        <v>455</v>
+      </c>
+      <c r="Q175">
+        <v>5</v>
+      </c>
+      <c r="R175">
+        <v>89</v>
+      </c>
+      <c r="S175">
+        <v>467</v>
+      </c>
+      <c r="T175">
+        <v>20</v>
+      </c>
+      <c r="U175" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U175"/>
+  <dimension ref="A1:U181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10089,6 +10089,390 @@
         </is>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>1299</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>350</v>
+      </c>
+      <c r="F176">
+        <v>6</v>
+      </c>
+      <c r="G176">
+        <v>1649</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>1531</v>
+      </c>
+      <c r="J176">
+        <v>5</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>22</v>
+      </c>
+      <c r="O176">
+        <v>643</v>
+      </c>
+      <c r="P176">
+        <v>455</v>
+      </c>
+      <c r="Q176">
+        <v>5</v>
+      </c>
+      <c r="R176">
+        <v>89</v>
+      </c>
+      <c r="S176">
+        <v>472</v>
+      </c>
+      <c r="T176">
+        <v>21</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>1304</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>350</v>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+      <c r="G177">
+        <v>1654</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1531</v>
+      </c>
+      <c r="J177">
+        <v>6</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>22</v>
+      </c>
+      <c r="O177">
+        <v>643</v>
+      </c>
+      <c r="P177">
+        <v>455</v>
+      </c>
+      <c r="Q177">
+        <v>2</v>
+      </c>
+      <c r="R177">
+        <v>89</v>
+      </c>
+      <c r="S177">
+        <v>480</v>
+      </c>
+      <c r="T177">
+        <v>21</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B178">
+        <v>11</v>
+      </c>
+      <c r="C178">
+        <v>1315</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>350</v>
+      </c>
+      <c r="F178">
+        <v>11</v>
+      </c>
+      <c r="G178">
+        <v>1665</v>
+      </c>
+      <c r="H178">
+        <v>7</v>
+      </c>
+      <c r="I178">
+        <v>1538</v>
+      </c>
+      <c r="J178">
+        <v>9</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>22</v>
+      </c>
+      <c r="O178">
+        <v>643</v>
+      </c>
+      <c r="P178">
+        <v>455</v>
+      </c>
+      <c r="Q178">
+        <v>2</v>
+      </c>
+      <c r="R178">
+        <v>89</v>
+      </c>
+      <c r="S178">
+        <v>489</v>
+      </c>
+      <c r="T178">
+        <v>16</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B179">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>1321</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>350</v>
+      </c>
+      <c r="F179">
+        <v>6</v>
+      </c>
+      <c r="G179">
+        <v>1671</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>1538</v>
+      </c>
+      <c r="J179">
+        <v>9</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>22</v>
+      </c>
+      <c r="O179">
+        <v>645</v>
+      </c>
+      <c r="P179">
+        <v>454</v>
+      </c>
+      <c r="Q179">
+        <v>1</v>
+      </c>
+      <c r="R179">
+        <v>90</v>
+      </c>
+      <c r="S179">
+        <v>481</v>
+      </c>
+      <c r="T179">
+        <v>16</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>1324</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>350</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>1674</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>1538</v>
+      </c>
+      <c r="J180">
+        <v>9</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>22</v>
+      </c>
+      <c r="O180">
+        <v>647</v>
+      </c>
+      <c r="P180">
+        <v>454</v>
+      </c>
+      <c r="Q180">
+        <v>1</v>
+      </c>
+      <c r="R180">
+        <v>90</v>
+      </c>
+      <c r="S180">
+        <v>482</v>
+      </c>
+      <c r="T180">
+        <v>18</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <v>1332</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>351</v>
+      </c>
+      <c r="F181">
+        <v>9</v>
+      </c>
+      <c r="G181">
+        <v>1683</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>1538</v>
+      </c>
+      <c r="J181">
+        <v>10</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>22</v>
+      </c>
+      <c r="O181">
+        <v>648</v>
+      </c>
+      <c r="P181">
+        <v>454</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>90</v>
+      </c>
+      <c r="S181">
+        <v>491</v>
+      </c>
+      <c r="T181">
+        <v>19</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U181"/>
+  <dimension ref="A1:W198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,6 +467,16 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>totalBorderCases</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>borderCases</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>tag</t>
         </is>
       </c>
@@ -487,7 +497,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -509,7 +519,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -531,7 +541,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -553,7 +563,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -575,7 +585,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -597,7 +607,7 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -619,7 +629,7 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -641,7 +651,7 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -663,7 +673,7 @@
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -685,7 +695,7 @@
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -707,7 +717,7 @@
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -729,7 +739,7 @@
       <c r="G13">
         <v>5</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -751,7 +761,7 @@
       <c r="G14">
         <v>5</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -773,7 +783,7 @@
       <c r="G15">
         <v>5</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -795,7 +805,7 @@
       <c r="G16">
         <v>5</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -817,7 +827,7 @@
       <c r="G17">
         <v>6</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -839,7 +849,7 @@
       <c r="G18">
         <v>8</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -861,7 +871,7 @@
       <c r="G19">
         <v>8</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -883,7 +893,7 @@
       <c r="G20">
         <v>12</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -905,7 +915,7 @@
       <c r="G21">
         <v>20</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -927,7 +937,7 @@
       <c r="G22">
         <v>28</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -949,7 +959,7 @@
       <c r="G23">
         <v>39</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -971,7 +981,7 @@
       <c r="G24">
         <v>52</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -993,7 +1003,7 @@
       <c r="G25">
         <v>66</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1015,7 +1025,7 @@
       <c r="G26">
         <v>102</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1055,7 +1065,7 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1095,7 +1105,7 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1135,7 +1145,7 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1178,7 +1188,7 @@
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1221,7 +1231,7 @@
       <c r="L31">
         <v>2</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1270,7 +1280,7 @@
       <c r="N32">
         <v>1</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1319,7 +1329,7 @@
       <c r="N33">
         <v>1</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1377,7 +1387,7 @@
       <c r="R34">
         <v>6</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1435,7 +1445,7 @@
       <c r="R35">
         <v>7</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1493,7 +1503,7 @@
       <c r="R36">
         <v>8</v>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1551,7 +1561,7 @@
       <c r="R37">
         <v>9</v>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1609,7 +1619,7 @@
       <c r="R38">
         <v>10</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1667,7 +1677,7 @@
       <c r="R39">
         <v>10</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1725,7 +1735,7 @@
       <c r="R40">
         <v>22</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1783,7 +1793,7 @@
       <c r="R41">
         <v>23</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1841,7 +1851,7 @@
       <c r="R42">
         <v>24</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1899,7 +1909,7 @@
       <c r="R43">
         <v>25</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -1957,7 +1967,7 @@
       <c r="R44">
         <v>26</v>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2015,7 +2025,7 @@
       <c r="R45">
         <v>26</v>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2073,7 +2083,7 @@
       <c r="R46">
         <v>27</v>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2131,7 +2141,7 @@
       <c r="R47">
         <v>27</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2189,7 +2199,7 @@
       <c r="R48">
         <v>27</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2247,7 +2257,7 @@
       <c r="R49">
         <v>28</v>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2305,7 +2315,7 @@
       <c r="R50">
         <v>28</v>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2363,7 +2373,7 @@
       <c r="R51">
         <v>42</v>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="W51" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2421,7 +2431,7 @@
       <c r="R52">
         <v>43</v>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2479,7 +2489,7 @@
       <c r="R53">
         <v>43</v>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2537,7 +2547,7 @@
       <c r="R54">
         <v>58</v>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2595,7 +2605,7 @@
       <c r="R55">
         <v>58</v>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="W55" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2653,7 +2663,7 @@
       <c r="R56">
         <v>58</v>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="W56" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2711,7 +2721,7 @@
       <c r="R57">
         <v>58</v>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="W57" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2772,7 +2782,7 @@
       <c r="S58">
         <v>204</v>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="W58" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2833,7 +2843,7 @@
       <c r="S59">
         <v>219</v>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2894,7 +2904,7 @@
       <c r="S60">
         <v>220</v>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="W60" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -2955,7 +2965,7 @@
       <c r="S61">
         <v>338</v>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="W61" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3016,7 +3026,7 @@
       <c r="S62">
         <v>339</v>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3077,7 +3087,7 @@
       <c r="S63">
         <v>339</v>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3138,7 +3148,7 @@
       <c r="S64">
         <v>354</v>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="W64" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3199,7 +3209,7 @@
       <c r="S65">
         <v>355</v>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3260,7 +3270,7 @@
       <c r="S66">
         <v>356</v>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="W66" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3321,7 +3331,7 @@
       <c r="S67">
         <v>357</v>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="W67" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3382,7 +3392,7 @@
       <c r="S68">
         <v>357</v>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="W68" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3443,7 +3453,7 @@
       <c r="S69">
         <v>357</v>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="W69" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3504,7 +3514,7 @@
       <c r="S70">
         <v>357</v>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="W70" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3565,7 +3575,7 @@
       <c r="S71">
         <v>357</v>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="W71" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3626,7 +3636,7 @@
       <c r="S72">
         <v>358</v>
       </c>
-      <c r="U72" t="inlineStr">
+      <c r="W72" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3687,7 +3697,7 @@
       <c r="S73">
         <v>358</v>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="W73" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3748,7 +3758,7 @@
       <c r="S74">
         <v>359</v>
       </c>
-      <c r="U74" t="inlineStr">
+      <c r="W74" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3809,7 +3819,7 @@
       <c r="S75">
         <v>366</v>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="W75" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3870,7 +3880,7 @@
       <c r="S76">
         <v>366</v>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="W76" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3931,7 +3941,7 @@
       <c r="S77">
         <v>366</v>
       </c>
-      <c r="U77" t="inlineStr">
+      <c r="W77" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -3992,7 +4002,7 @@
       <c r="S78">
         <v>366</v>
       </c>
-      <c r="U78" t="inlineStr">
+      <c r="W78" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4053,7 +4063,7 @@
       <c r="S79">
         <v>370</v>
       </c>
-      <c r="U79" t="inlineStr">
+      <c r="W79" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4114,7 +4124,7 @@
       <c r="S80">
         <v>370</v>
       </c>
-      <c r="U80" t="inlineStr">
+      <c r="W80" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4175,7 +4185,7 @@
       <c r="S81">
         <v>370</v>
       </c>
-      <c r="U81" t="inlineStr">
+      <c r="W81" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4236,7 +4246,7 @@
       <c r="S82">
         <v>370</v>
       </c>
-      <c r="U82" t="inlineStr">
+      <c r="W82" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4297,7 +4307,7 @@
       <c r="S83">
         <v>376</v>
       </c>
-      <c r="U83" t="inlineStr">
+      <c r="W83" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4358,7 +4368,7 @@
       <c r="S84">
         <v>376</v>
       </c>
-      <c r="U84" t="inlineStr">
+      <c r="W84" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4419,7 +4429,7 @@
       <c r="S85">
         <v>376</v>
       </c>
-      <c r="U85" t="inlineStr">
+      <c r="W85" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4480,7 +4490,7 @@
       <c r="S86">
         <v>376</v>
       </c>
-      <c r="U86" t="inlineStr">
+      <c r="W86" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4541,7 +4551,7 @@
       <c r="S87">
         <v>381</v>
       </c>
-      <c r="U87" t="inlineStr">
+      <c r="W87" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4602,7 +4612,7 @@
       <c r="S88">
         <v>381</v>
       </c>
-      <c r="U88" t="inlineStr">
+      <c r="W88" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4663,7 +4673,7 @@
       <c r="S89">
         <v>380</v>
       </c>
-      <c r="U89" t="inlineStr">
+      <c r="W89" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4724,7 +4734,7 @@
       <c r="S90">
         <v>380</v>
       </c>
-      <c r="U90" t="inlineStr">
+      <c r="W90" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4785,7 +4795,7 @@
       <c r="S91">
         <v>380</v>
       </c>
-      <c r="U91" t="inlineStr">
+      <c r="W91" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4846,7 +4856,7 @@
       <c r="S92">
         <v>380</v>
       </c>
-      <c r="U92" t="inlineStr">
+      <c r="W92" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4907,7 +4917,7 @@
       <c r="S93">
         <v>380</v>
       </c>
-      <c r="U93" t="inlineStr">
+      <c r="W93" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -4968,7 +4978,7 @@
       <c r="S94">
         <v>380</v>
       </c>
-      <c r="U94" t="inlineStr">
+      <c r="W94" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5029,7 +5039,7 @@
       <c r="S95">
         <v>380</v>
       </c>
-      <c r="U95" t="inlineStr">
+      <c r="W95" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5090,7 +5100,7 @@
       <c r="S96">
         <v>380</v>
       </c>
-      <c r="U96" t="inlineStr">
+      <c r="W96" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5151,7 +5161,7 @@
       <c r="S97">
         <v>380</v>
       </c>
-      <c r="U97" t="inlineStr">
+      <c r="W97" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5212,7 +5222,7 @@
       <c r="S98">
         <v>383</v>
       </c>
-      <c r="U98" t="inlineStr">
+      <c r="W98" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5273,7 +5283,7 @@
       <c r="S99">
         <v>383</v>
       </c>
-      <c r="U99" t="inlineStr">
+      <c r="W99" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5334,7 +5344,7 @@
       <c r="S100">
         <v>383</v>
       </c>
-      <c r="U100" t="inlineStr">
+      <c r="W100" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5395,7 +5405,7 @@
       <c r="S101">
         <v>383</v>
       </c>
-      <c r="U101" t="inlineStr">
+      <c r="W101" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5456,7 +5466,7 @@
       <c r="S102">
         <v>383</v>
       </c>
-      <c r="U102" t="inlineStr">
+      <c r="W102" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5517,7 +5527,7 @@
       <c r="S103">
         <v>383</v>
       </c>
-      <c r="U103" t="inlineStr">
+      <c r="W103" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5578,7 +5588,7 @@
       <c r="S104">
         <v>383</v>
       </c>
-      <c r="U104" t="inlineStr">
+      <c r="W104" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5639,7 +5649,7 @@
       <c r="S105">
         <v>383</v>
       </c>
-      <c r="U105" t="inlineStr">
+      <c r="W105" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5700,7 +5710,7 @@
       <c r="S106">
         <v>384</v>
       </c>
-      <c r="U106" t="inlineStr">
+      <c r="W106" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5761,7 +5771,7 @@
       <c r="S107">
         <v>384</v>
       </c>
-      <c r="U107" t="inlineStr">
+      <c r="W107" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5822,7 +5832,7 @@
       <c r="S108">
         <v>384</v>
       </c>
-      <c r="U108" t="inlineStr">
+      <c r="W108" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5883,7 +5893,7 @@
       <c r="S109">
         <v>384</v>
       </c>
-      <c r="U109" t="inlineStr">
+      <c r="W109" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -5944,7 +5954,7 @@
       <c r="S110">
         <v>384</v>
       </c>
-      <c r="U110" t="inlineStr">
+      <c r="W110" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6005,7 +6015,7 @@
       <c r="S111">
         <v>383</v>
       </c>
-      <c r="U111" t="inlineStr">
+      <c r="W111" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6066,7 +6076,7 @@
       <c r="S112">
         <v>388</v>
       </c>
-      <c r="U112" t="inlineStr">
+      <c r="W112" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6127,7 +6137,7 @@
       <c r="S113">
         <v>388</v>
       </c>
-      <c r="U113" t="inlineStr">
+      <c r="W113" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6188,7 +6198,7 @@
       <c r="S114">
         <v>388</v>
       </c>
-      <c r="U114" t="inlineStr">
+      <c r="W114" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6249,7 +6259,7 @@
       <c r="S115">
         <v>388</v>
       </c>
-      <c r="U115" t="inlineStr">
+      <c r="W115" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6310,7 +6320,7 @@
       <c r="S116">
         <v>388</v>
       </c>
-      <c r="U116" t="inlineStr">
+      <c r="W116" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6371,7 +6381,7 @@
       <c r="S117">
         <v>388</v>
       </c>
-      <c r="U117" t="inlineStr">
+      <c r="W117" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6435,7 +6445,7 @@
       <c r="T118">
         <v>9</v>
       </c>
-      <c r="U118" t="inlineStr">
+      <c r="W118" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6499,7 +6509,7 @@
       <c r="T119">
         <v>10</v>
       </c>
-      <c r="U119" t="inlineStr">
+      <c r="W119" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6563,7 +6573,7 @@
       <c r="T120">
         <v>10</v>
       </c>
-      <c r="U120" t="inlineStr">
+      <c r="W120" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6627,7 +6637,7 @@
       <c r="T121">
         <v>13</v>
       </c>
-      <c r="U121" t="inlineStr">
+      <c r="W121" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6691,7 +6701,7 @@
       <c r="T122">
         <v>14</v>
       </c>
-      <c r="U122" t="inlineStr">
+      <c r="W122" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6755,7 +6765,7 @@
       <c r="T123">
         <v>16</v>
       </c>
-      <c r="U123" t="inlineStr">
+      <c r="W123" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6819,7 +6829,7 @@
       <c r="T124">
         <v>20</v>
       </c>
-      <c r="U124" t="inlineStr">
+      <c r="W124" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6883,7 +6893,7 @@
       <c r="T125">
         <v>22</v>
       </c>
-      <c r="U125" t="inlineStr">
+      <c r="W125" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6947,7 +6957,7 @@
       <c r="T126">
         <v>22</v>
       </c>
-      <c r="U126" t="inlineStr">
+      <c r="W126" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7011,7 +7021,7 @@
       <c r="T127">
         <v>22</v>
       </c>
-      <c r="U127" t="inlineStr">
+      <c r="W127" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7075,7 +7085,7 @@
       <c r="T128">
         <v>18</v>
       </c>
-      <c r="U128" t="inlineStr">
+      <c r="W128" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7139,7 +7149,7 @@
       <c r="T129">
         <v>18</v>
       </c>
-      <c r="U129" t="inlineStr">
+      <c r="W129" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7203,7 +7213,7 @@
       <c r="T130">
         <v>18</v>
       </c>
-      <c r="U130" t="inlineStr">
+      <c r="W130" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7267,7 +7277,7 @@
       <c r="T131">
         <v>21</v>
       </c>
-      <c r="U131" t="inlineStr">
+      <c r="W131" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7331,7 +7341,7 @@
       <c r="T132">
         <v>22</v>
       </c>
-      <c r="U132" t="inlineStr">
+      <c r="W132" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7395,7 +7405,7 @@
       <c r="T133">
         <v>22</v>
       </c>
-      <c r="U133" t="inlineStr">
+      <c r="W133" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7459,7 +7469,7 @@
       <c r="T134">
         <v>23</v>
       </c>
-      <c r="U134" t="inlineStr">
+      <c r="W134" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7523,7 +7533,7 @@
       <c r="T135">
         <v>24</v>
       </c>
-      <c r="U135" t="inlineStr">
+      <c r="W135" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7587,7 +7597,7 @@
       <c r="T136">
         <v>23</v>
       </c>
-      <c r="U136" t="inlineStr">
+      <c r="W136" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7651,7 +7661,7 @@
       <c r="T137">
         <v>24</v>
       </c>
-      <c r="U137" t="inlineStr">
+      <c r="W137" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7715,7 +7725,7 @@
       <c r="T138">
         <v>25</v>
       </c>
-      <c r="U138" t="inlineStr">
+      <c r="W138" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7779,7 +7789,7 @@
       <c r="T139">
         <v>25</v>
       </c>
-      <c r="U139" t="inlineStr">
+      <c r="W139" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7843,7 +7853,7 @@
       <c r="T140">
         <v>25</v>
       </c>
-      <c r="U140" t="inlineStr">
+      <c r="W140" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7907,7 +7917,7 @@
       <c r="T141">
         <v>27</v>
       </c>
-      <c r="U141" t="inlineStr">
+      <c r="W141" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -7971,7 +7981,7 @@
       <c r="T142">
         <v>27</v>
       </c>
-      <c r="U142" t="inlineStr">
+      <c r="W142" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8035,7 +8045,7 @@
       <c r="T143">
         <v>21</v>
       </c>
-      <c r="U143" t="inlineStr">
+      <c r="W143" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8099,7 +8109,7 @@
       <c r="T144">
         <v>22</v>
       </c>
-      <c r="U144" t="inlineStr">
+      <c r="W144" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8163,7 +8173,7 @@
       <c r="T145">
         <v>25</v>
       </c>
-      <c r="U145" t="inlineStr">
+      <c r="W145" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8227,7 +8237,7 @@
       <c r="T146">
         <v>26</v>
       </c>
-      <c r="U146" t="inlineStr">
+      <c r="W146" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8291,7 +8301,7 @@
       <c r="T147">
         <v>27</v>
       </c>
-      <c r="U147" t="inlineStr">
+      <c r="W147" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8355,7 +8365,7 @@
       <c r="T148">
         <v>27</v>
       </c>
-      <c r="U148" t="inlineStr">
+      <c r="W148" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8419,7 +8429,7 @@
       <c r="T149">
         <v>22</v>
       </c>
-      <c r="U149" t="inlineStr">
+      <c r="W149" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8483,7 +8493,7 @@
       <c r="T150">
         <v>21</v>
       </c>
-      <c r="U150" t="inlineStr">
+      <c r="W150" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8547,7 +8557,7 @@
       <c r="T151">
         <v>21</v>
       </c>
-      <c r="U151" t="inlineStr">
+      <c r="W151" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8611,7 +8621,7 @@
       <c r="T152">
         <v>21</v>
       </c>
-      <c r="U152" t="inlineStr">
+      <c r="W152" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8675,7 +8685,7 @@
       <c r="T153">
         <v>21</v>
       </c>
-      <c r="U153" t="inlineStr">
+      <c r="W153" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8739,7 +8749,7 @@
       <c r="T154">
         <v>21</v>
       </c>
-      <c r="U154" t="inlineStr">
+      <c r="W154" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8803,7 +8813,7 @@
       <c r="T155">
         <v>23</v>
       </c>
-      <c r="U155" t="inlineStr">
+      <c r="W155" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8867,7 +8877,7 @@
       <c r="T156">
         <v>24</v>
       </c>
-      <c r="U156" t="inlineStr">
+      <c r="W156" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8931,7 +8941,7 @@
       <c r="T157">
         <v>20</v>
       </c>
-      <c r="U157" t="inlineStr">
+      <c r="W157" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -8995,7 +9005,7 @@
       <c r="T158">
         <v>22</v>
       </c>
-      <c r="U158" t="inlineStr">
+      <c r="W158" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9059,7 +9069,7 @@
       <c r="T159">
         <v>25</v>
       </c>
-      <c r="U159" t="inlineStr">
+      <c r="W159" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9123,7 +9133,7 @@
       <c r="T160">
         <v>27</v>
       </c>
-      <c r="U160" t="inlineStr">
+      <c r="W160" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9187,7 +9197,7 @@
       <c r="T161">
         <v>22</v>
       </c>
-      <c r="U161" t="inlineStr">
+      <c r="W161" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9251,7 +9261,7 @@
       <c r="T162">
         <v>24</v>
       </c>
-      <c r="U162" t="inlineStr">
+      <c r="W162" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9315,7 +9325,7 @@
       <c r="T163">
         <v>23</v>
       </c>
-      <c r="U163" t="inlineStr">
+      <c r="W163" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9379,7 +9389,7 @@
       <c r="T164">
         <v>23</v>
       </c>
-      <c r="U164" t="inlineStr">
+      <c r="W164" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9443,7 +9453,7 @@
       <c r="T165">
         <v>23</v>
       </c>
-      <c r="U165" t="inlineStr">
+      <c r="W165" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9507,7 +9517,7 @@
       <c r="T166">
         <v>23</v>
       </c>
-      <c r="U166" t="inlineStr">
+      <c r="W166" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9571,7 +9581,7 @@
       <c r="T167">
         <v>21</v>
       </c>
-      <c r="U167" t="inlineStr">
+      <c r="W167" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9635,7 +9645,7 @@
       <c r="T168">
         <v>22</v>
       </c>
-      <c r="U168" t="inlineStr">
+      <c r="W168" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9699,7 +9709,7 @@
       <c r="T169">
         <v>18</v>
       </c>
-      <c r="U169" t="inlineStr">
+      <c r="W169" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9763,7 +9773,7 @@
       <c r="T170">
         <v>19</v>
       </c>
-      <c r="U170" t="inlineStr">
+      <c r="W170" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9827,7 +9837,7 @@
       <c r="T171">
         <v>19</v>
       </c>
-      <c r="U171" t="inlineStr">
+      <c r="W171" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9891,7 +9901,7 @@
       <c r="T172">
         <v>19</v>
       </c>
-      <c r="U172" t="inlineStr">
+      <c r="W172" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -9955,7 +9965,7 @@
       <c r="T173">
         <v>20</v>
       </c>
-      <c r="U173" t="inlineStr">
+      <c r="W173" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -10019,7 +10029,7 @@
       <c r="T174">
         <v>20</v>
       </c>
-      <c r="U174" t="inlineStr">
+      <c r="W174" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -10083,7 +10093,7 @@
       <c r="T175">
         <v>20</v>
       </c>
-      <c r="U175" t="inlineStr">
+      <c r="W175" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -10147,7 +10157,7 @@
       <c r="T176">
         <v>21</v>
       </c>
-      <c r="U176" t="inlineStr">
+      <c r="W176" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -10211,7 +10221,7 @@
       <c r="T177">
         <v>21</v>
       </c>
-      <c r="U177" t="inlineStr">
+      <c r="W177" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -10275,7 +10285,7 @@
       <c r="T178">
         <v>16</v>
       </c>
-      <c r="U178" t="inlineStr">
+      <c r="W178" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -10339,7 +10349,7 @@
       <c r="T179">
         <v>16</v>
       </c>
-      <c r="U179" t="inlineStr">
+      <c r="W179" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -10403,7 +10413,7 @@
       <c r="T180">
         <v>18</v>
       </c>
-      <c r="U180" t="inlineStr">
+      <c r="W180" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -10467,7 +10477,1137 @@
       <c r="T181">
         <v>19</v>
       </c>
-      <c r="U181" t="inlineStr">
+      <c r="W181" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B182">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <v>1339</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>351</v>
+      </c>
+      <c r="F182">
+        <v>7</v>
+      </c>
+      <c r="G182">
+        <v>1690</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>1539</v>
+      </c>
+      <c r="J182">
+        <v>9</v>
+      </c>
+      <c r="L182">
+        <v>3</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>22</v>
+      </c>
+      <c r="O182">
+        <v>648</v>
+      </c>
+      <c r="P182">
+        <v>454</v>
+      </c>
+      <c r="Q182">
+        <v>1</v>
+      </c>
+      <c r="R182">
+        <v>90</v>
+      </c>
+      <c r="S182">
+        <v>491</v>
+      </c>
+      <c r="T182">
+        <v>19</v>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>1344</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>351</v>
+      </c>
+      <c r="F183">
+        <v>5</v>
+      </c>
+      <c r="G183">
+        <v>1695</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>1539</v>
+      </c>
+      <c r="J183">
+        <v>10</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>22</v>
+      </c>
+      <c r="O183">
+        <v>650</v>
+      </c>
+      <c r="P183">
+        <v>454</v>
+      </c>
+      <c r="Q183">
+        <v>1</v>
+      </c>
+      <c r="R183">
+        <v>90</v>
+      </c>
+      <c r="S183">
+        <v>494</v>
+      </c>
+      <c r="T183">
+        <v>21</v>
+      </c>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B184">
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <v>1351</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>351</v>
+      </c>
+      <c r="F184">
+        <v>7</v>
+      </c>
+      <c r="G184">
+        <v>1702</v>
+      </c>
+      <c r="H184">
+        <v>15</v>
+      </c>
+      <c r="I184">
+        <v>1554</v>
+      </c>
+      <c r="J184">
+        <v>10</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>22</v>
+      </c>
+      <c r="O184">
+        <v>650</v>
+      </c>
+      <c r="P184">
+        <v>454</v>
+      </c>
+      <c r="Q184">
+        <v>1</v>
+      </c>
+      <c r="R184">
+        <v>90</v>
+      </c>
+      <c r="S184">
+        <v>500</v>
+      </c>
+      <c r="T184">
+        <v>22</v>
+      </c>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B185">
+        <v>12</v>
+      </c>
+      <c r="C185">
+        <v>1363</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>351</v>
+      </c>
+      <c r="F185">
+        <v>12</v>
+      </c>
+      <c r="G185">
+        <v>1714</v>
+      </c>
+      <c r="H185">
+        <v>7</v>
+      </c>
+      <c r="I185">
+        <v>1561</v>
+      </c>
+      <c r="J185">
+        <v>11</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>22</v>
+      </c>
+      <c r="O185">
+        <v>657</v>
+      </c>
+      <c r="P185">
+        <v>454</v>
+      </c>
+      <c r="Q185">
+        <v>1</v>
+      </c>
+      <c r="R185">
+        <v>90</v>
+      </c>
+      <c r="S185">
+        <v>505</v>
+      </c>
+      <c r="T185">
+        <v>18</v>
+      </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B186">
+        <v>13</v>
+      </c>
+      <c r="C186">
+        <v>1376</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>351</v>
+      </c>
+      <c r="F186">
+        <v>13</v>
+      </c>
+      <c r="G186">
+        <v>1727</v>
+      </c>
+      <c r="H186">
+        <v>7</v>
+      </c>
+      <c r="I186">
+        <v>1568</v>
+      </c>
+      <c r="J186">
+        <v>11</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>22</v>
+      </c>
+      <c r="O186">
+        <v>659</v>
+      </c>
+      <c r="P186">
+        <v>454</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="R186">
+        <v>90</v>
+      </c>
+      <c r="S186">
+        <v>516</v>
+      </c>
+      <c r="T186">
+        <v>20</v>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>1378</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>351</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187">
+        <v>1729</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>1570</v>
+      </c>
+      <c r="J187">
+        <v>10</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>22</v>
+      </c>
+      <c r="O187">
+        <v>659</v>
+      </c>
+      <c r="P187">
+        <v>454</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <v>90</v>
+      </c>
+      <c r="S187">
+        <v>518</v>
+      </c>
+      <c r="T187">
+        <v>20</v>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>1387</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>351</v>
+      </c>
+      <c r="F188">
+        <v>9</v>
+      </c>
+      <c r="G188">
+        <v>1738</v>
+      </c>
+      <c r="H188">
+        <v>15</v>
+      </c>
+      <c r="I188">
+        <v>1585</v>
+      </c>
+      <c r="J188">
+        <v>11</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>22</v>
+      </c>
+      <c r="O188">
+        <v>663</v>
+      </c>
+      <c r="P188">
+        <v>454</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>90</v>
+      </c>
+      <c r="S188">
+        <v>523</v>
+      </c>
+      <c r="T188">
+        <v>24</v>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B189">
+        <v>14</v>
+      </c>
+      <c r="C189">
+        <v>1401</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>351</v>
+      </c>
+      <c r="F189">
+        <v>14</v>
+      </c>
+      <c r="G189">
+        <v>1752</v>
+      </c>
+      <c r="H189">
+        <v>13</v>
+      </c>
+      <c r="I189">
+        <v>1598</v>
+      </c>
+      <c r="J189">
+        <v>10</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>22</v>
+      </c>
+      <c r="O189">
+        <v>672</v>
+      </c>
+      <c r="P189">
+        <v>454</v>
+      </c>
+      <c r="Q189">
+        <v>1</v>
+      </c>
+      <c r="R189">
+        <v>90</v>
+      </c>
+      <c r="S189">
+        <v>528</v>
+      </c>
+      <c r="T189">
+        <v>33</v>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>1406</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>351</v>
+      </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
+      <c r="G190">
+        <v>1757</v>
+      </c>
+      <c r="H190">
+        <v>8</v>
+      </c>
+      <c r="I190">
+        <v>1606</v>
+      </c>
+      <c r="J190">
+        <v>7</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>22</v>
+      </c>
+      <c r="O190">
+        <v>674</v>
+      </c>
+      <c r="P190">
+        <v>454</v>
+      </c>
+      <c r="Q190">
+        <v>1</v>
+      </c>
+      <c r="R190">
+        <v>90</v>
+      </c>
+      <c r="S190">
+        <v>531</v>
+      </c>
+      <c r="T190">
+        <v>35</v>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>1408</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>351</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="G191">
+        <v>1759</v>
+      </c>
+      <c r="H191">
+        <v>16</v>
+      </c>
+      <c r="I191">
+        <v>1622</v>
+      </c>
+      <c r="J191">
+        <v>7</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>22</v>
+      </c>
+      <c r="O191">
+        <v>675</v>
+      </c>
+      <c r="P191">
+        <v>454</v>
+      </c>
+      <c r="Q191">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>90</v>
+      </c>
+      <c r="S191">
+        <v>532</v>
+      </c>
+      <c r="T191">
+        <v>36</v>
+      </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B192">
+        <v>5</v>
+      </c>
+      <c r="C192">
+        <v>1413</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>351</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+      <c r="G192">
+        <v>1764</v>
+      </c>
+      <c r="H192">
+        <v>8</v>
+      </c>
+      <c r="I192">
+        <v>1630</v>
+      </c>
+      <c r="J192">
+        <v>6</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>22</v>
+      </c>
+      <c r="O192">
+        <v>677</v>
+      </c>
+      <c r="P192">
+        <v>454</v>
+      </c>
+      <c r="Q192">
+        <v>1</v>
+      </c>
+      <c r="R192">
+        <v>90</v>
+      </c>
+      <c r="S192">
+        <v>535</v>
+      </c>
+      <c r="T192">
+        <v>35</v>
+      </c>
+      <c r="U192">
+        <v>135</v>
+      </c>
+      <c r="V192">
+        <v>2</v>
+      </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>1416</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>351</v>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+      <c r="G193">
+        <v>1767</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1631</v>
+      </c>
+      <c r="J193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>24</v>
+      </c>
+      <c r="O193">
+        <v>678</v>
+      </c>
+      <c r="P193">
+        <v>454</v>
+      </c>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193">
+        <v>90</v>
+      </c>
+      <c r="S193">
+        <v>537</v>
+      </c>
+      <c r="T193">
+        <v>38</v>
+      </c>
+      <c r="U193">
+        <v>136</v>
+      </c>
+      <c r="V193">
+        <v>1</v>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B194">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>1421</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>351</v>
+      </c>
+      <c r="F194">
+        <v>5</v>
+      </c>
+      <c r="G194">
+        <v>1772</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>1632</v>
+      </c>
+      <c r="J194">
+        <v>4</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>24</v>
+      </c>
+      <c r="O194">
+        <v>679</v>
+      </c>
+      <c r="P194">
+        <v>454</v>
+      </c>
+      <c r="Q194">
+        <v>1</v>
+      </c>
+      <c r="R194">
+        <v>90</v>
+      </c>
+      <c r="S194">
+        <v>541</v>
+      </c>
+      <c r="T194">
+        <v>39</v>
+      </c>
+      <c r="U194">
+        <v>137</v>
+      </c>
+      <c r="V194">
+        <v>1</v>
+      </c>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>1425</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>351</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
+      </c>
+      <c r="G195">
+        <v>1776</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195">
+        <v>1634</v>
+      </c>
+      <c r="J195">
+        <v>4</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>24</v>
+      </c>
+      <c r="O195">
+        <v>681</v>
+      </c>
+      <c r="P195">
+        <v>454</v>
+      </c>
+      <c r="Q195">
+        <v>1</v>
+      </c>
+      <c r="R195">
+        <v>90</v>
+      </c>
+      <c r="S195">
+        <v>543</v>
+      </c>
+      <c r="T195">
+        <v>41</v>
+      </c>
+      <c r="U195">
+        <v>139</v>
+      </c>
+      <c r="V195">
+        <v>2</v>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B196">
+        <v>6</v>
+      </c>
+      <c r="C196">
+        <v>1431</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>351</v>
+      </c>
+      <c r="F196">
+        <v>6</v>
+      </c>
+      <c r="G196">
+        <v>1782</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>1635</v>
+      </c>
+      <c r="J196">
+        <v>4</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>24</v>
+      </c>
+      <c r="O196">
+        <v>683</v>
+      </c>
+      <c r="P196">
+        <v>454</v>
+      </c>
+      <c r="Q196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>90</v>
+      </c>
+      <c r="S196">
+        <v>547</v>
+      </c>
+      <c r="T196">
+        <v>43</v>
+      </c>
+      <c r="U196">
+        <v>141</v>
+      </c>
+      <c r="V196">
+        <v>2</v>
+      </c>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B197">
+        <v>6</v>
+      </c>
+      <c r="C197">
+        <v>1437</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>351</v>
+      </c>
+      <c r="F197">
+        <v>6</v>
+      </c>
+      <c r="G197">
+        <v>1788</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
+        <v>1639</v>
+      </c>
+      <c r="J197">
+        <v>4</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>24</v>
+      </c>
+      <c r="O197">
+        <v>683</v>
+      </c>
+      <c r="P197">
+        <v>454</v>
+      </c>
+      <c r="Q197">
+        <v>1</v>
+      </c>
+      <c r="R197">
+        <v>90</v>
+      </c>
+      <c r="S197">
+        <v>553</v>
+      </c>
+      <c r="T197">
+        <v>43</v>
+      </c>
+      <c r="U197">
+        <v>141</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>1441</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>351</v>
+      </c>
+      <c r="F198">
+        <v>4</v>
+      </c>
+      <c r="G198">
+        <v>1792</v>
+      </c>
+      <c r="H198">
+        <v>9</v>
+      </c>
+      <c r="I198">
+        <v>1648</v>
+      </c>
+      <c r="J198">
+        <v>3</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>24</v>
+      </c>
+      <c r="O198">
+        <v>685</v>
+      </c>
+      <c r="P198">
+        <v>454</v>
+      </c>
+      <c r="Q198">
+        <v>1</v>
+      </c>
+      <c r="R198">
+        <v>90</v>
+      </c>
+      <c r="S198">
+        <v>555</v>
+      </c>
+      <c r="T198">
+        <v>39</v>
+      </c>
+      <c r="U198">
+        <v>143</v>
+      </c>
+      <c r="V198">
+        <v>2</v>
+      </c>
+      <c r="W198" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W198"/>
+  <dimension ref="A1:W235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11613,6 +11613,2536 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>1442</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>351</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>1793</v>
+      </c>
+      <c r="H199">
+        <v>7</v>
+      </c>
+      <c r="I199">
+        <v>1655</v>
+      </c>
+      <c r="J199">
+        <v>3</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>24</v>
+      </c>
+      <c r="O199">
+        <v>685</v>
+      </c>
+      <c r="P199">
+        <v>454</v>
+      </c>
+      <c r="Q199">
+        <v>1</v>
+      </c>
+      <c r="R199">
+        <v>90</v>
+      </c>
+      <c r="S199">
+        <v>556</v>
+      </c>
+      <c r="T199">
+        <v>39</v>
+      </c>
+      <c r="U199">
+        <v>143</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>1444</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>351</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <v>1795</v>
+      </c>
+      <c r="H200">
+        <v>8</v>
+      </c>
+      <c r="I200">
+        <v>1663</v>
+      </c>
+      <c r="J200">
+        <v>3</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>24</v>
+      </c>
+      <c r="O200">
+        <v>685</v>
+      </c>
+      <c r="P200">
+        <v>454</v>
+      </c>
+      <c r="Q200">
+        <v>1</v>
+      </c>
+      <c r="R200">
+        <v>90</v>
+      </c>
+      <c r="S200">
+        <v>558</v>
+      </c>
+      <c r="T200">
+        <v>38</v>
+      </c>
+      <c r="U200">
+        <v>143</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>1446</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>351</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+      <c r="G201">
+        <v>1797</v>
+      </c>
+      <c r="H201">
+        <v>13</v>
+      </c>
+      <c r="I201">
+        <v>1676</v>
+      </c>
+      <c r="J201">
+        <v>3</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>24</v>
+      </c>
+      <c r="O201">
+        <v>686</v>
+      </c>
+      <c r="P201">
+        <v>454</v>
+      </c>
+      <c r="Q201">
+        <v>1</v>
+      </c>
+      <c r="R201">
+        <v>90</v>
+      </c>
+      <c r="S201">
+        <v>559</v>
+      </c>
+      <c r="T201">
+        <v>39</v>
+      </c>
+      <c r="U201">
+        <v>144</v>
+      </c>
+      <c r="V201">
+        <v>1</v>
+      </c>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1447</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>351</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>1798</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>1678</v>
+      </c>
+      <c r="J202">
+        <v>3</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>24</v>
+      </c>
+      <c r="O202">
+        <v>686</v>
+      </c>
+      <c r="P202">
+        <v>454</v>
+      </c>
+      <c r="Q202">
+        <v>1</v>
+      </c>
+      <c r="R202">
+        <v>90</v>
+      </c>
+      <c r="S202">
+        <v>560</v>
+      </c>
+      <c r="T202">
+        <v>39</v>
+      </c>
+      <c r="U202">
+        <v>144</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>1450</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>351</v>
+      </c>
+      <c r="F203">
+        <v>3</v>
+      </c>
+      <c r="G203">
+        <v>1801</v>
+      </c>
+      <c r="H203">
+        <v>16</v>
+      </c>
+      <c r="I203">
+        <v>1694</v>
+      </c>
+      <c r="J203">
+        <v>3</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>24</v>
+      </c>
+      <c r="O203">
+        <v>689</v>
+      </c>
+      <c r="P203">
+        <v>454</v>
+      </c>
+      <c r="Q203">
+        <v>1</v>
+      </c>
+      <c r="R203">
+        <v>90</v>
+      </c>
+      <c r="S203">
+        <v>560</v>
+      </c>
+      <c r="T203">
+        <v>28</v>
+      </c>
+      <c r="U203">
+        <v>147</v>
+      </c>
+      <c r="V203">
+        <v>3</v>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1451</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>351</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1802</v>
+      </c>
+      <c r="H204">
+        <v>4</v>
+      </c>
+      <c r="I204">
+        <v>1698</v>
+      </c>
+      <c r="J204">
+        <v>3</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>25</v>
+      </c>
+      <c r="O204">
+        <v>690</v>
+      </c>
+      <c r="P204">
+        <v>454</v>
+      </c>
+      <c r="Q204">
+        <v>2</v>
+      </c>
+      <c r="R204">
+        <v>89</v>
+      </c>
+      <c r="S204">
+        <v>565</v>
+      </c>
+      <c r="T204">
+        <v>29</v>
+      </c>
+      <c r="U204">
+        <v>148</v>
+      </c>
+      <c r="V204">
+        <v>1</v>
+      </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B205">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>1458</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>351</v>
+      </c>
+      <c r="F205">
+        <v>7</v>
+      </c>
+      <c r="G205">
+        <v>1809</v>
+      </c>
+      <c r="H205">
+        <v>9</v>
+      </c>
+      <c r="I205">
+        <v>1707</v>
+      </c>
+      <c r="J205">
+        <v>4</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>25</v>
+      </c>
+      <c r="O205">
+        <v>697</v>
+      </c>
+      <c r="P205">
+        <v>454</v>
+      </c>
+      <c r="Q205">
+        <v>2</v>
+      </c>
+      <c r="R205">
+        <v>89</v>
+      </c>
+      <c r="S205">
+        <v>565</v>
+      </c>
+      <c r="T205">
+        <v>33</v>
+      </c>
+      <c r="U205">
+        <v>155</v>
+      </c>
+      <c r="V205">
+        <v>7</v>
+      </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>1458</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>351</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>1809</v>
+      </c>
+      <c r="H206">
+        <v>7</v>
+      </c>
+      <c r="I206">
+        <v>1714</v>
+      </c>
+      <c r="J206">
+        <v>4</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>25</v>
+      </c>
+      <c r="O206">
+        <v>697</v>
+      </c>
+      <c r="P206">
+        <v>454</v>
+      </c>
+      <c r="Q206">
+        <v>2</v>
+      </c>
+      <c r="R206">
+        <v>89</v>
+      </c>
+      <c r="S206">
+        <v>565</v>
+      </c>
+      <c r="T206">
+        <v>33</v>
+      </c>
+      <c r="U206">
+        <v>155</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>1460</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>351</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+      <c r="G207">
+        <v>1811</v>
+      </c>
+      <c r="H207">
+        <v>5</v>
+      </c>
+      <c r="I207">
+        <v>1719</v>
+      </c>
+      <c r="J207">
+        <v>4</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>25</v>
+      </c>
+      <c r="O207">
+        <v>698</v>
+      </c>
+      <c r="P207">
+        <v>454</v>
+      </c>
+      <c r="Q207">
+        <v>2</v>
+      </c>
+      <c r="R207">
+        <v>89</v>
+      </c>
+      <c r="S207">
+        <v>566</v>
+      </c>
+      <c r="T207">
+        <v>33</v>
+      </c>
+      <c r="U207">
+        <v>156</v>
+      </c>
+      <c r="V207">
+        <v>1</v>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>1464</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>351</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="G208">
+        <v>1815</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>1719</v>
+      </c>
+      <c r="J208">
+        <v>3</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>25</v>
+      </c>
+      <c r="O208">
+        <v>701</v>
+      </c>
+      <c r="P208">
+        <v>454</v>
+      </c>
+      <c r="Q208">
+        <v>2</v>
+      </c>
+      <c r="R208">
+        <v>89</v>
+      </c>
+      <c r="S208">
+        <v>568</v>
+      </c>
+      <c r="T208">
+        <v>35</v>
+      </c>
+      <c r="U208">
+        <v>158</v>
+      </c>
+      <c r="V208">
+        <v>2</v>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1464</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>351</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>1815</v>
+      </c>
+      <c r="H209">
+        <v>9</v>
+      </c>
+      <c r="I209">
+        <v>1728</v>
+      </c>
+      <c r="J209">
+        <v>3</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>25</v>
+      </c>
+      <c r="O209">
+        <v>701</v>
+      </c>
+      <c r="P209">
+        <v>454</v>
+      </c>
+      <c r="Q209">
+        <v>2</v>
+      </c>
+      <c r="R209">
+        <v>89</v>
+      </c>
+      <c r="S209">
+        <v>568</v>
+      </c>
+      <c r="T209">
+        <v>29</v>
+      </c>
+      <c r="U209">
+        <v>158</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>1464</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>351</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>1815</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>1729</v>
+      </c>
+      <c r="J210">
+        <v>3</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>25</v>
+      </c>
+      <c r="O210">
+        <v>701</v>
+      </c>
+      <c r="P210">
+        <v>454</v>
+      </c>
+      <c r="Q210">
+        <v>2</v>
+      </c>
+      <c r="R210">
+        <v>89</v>
+      </c>
+      <c r="S210">
+        <v>568</v>
+      </c>
+      <c r="T210">
+        <v>29</v>
+      </c>
+      <c r="U210">
+        <v>158</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>1468</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211">
+        <v>356</v>
+      </c>
+      <c r="F211">
+        <v>9</v>
+      </c>
+      <c r="G211">
+        <v>1824</v>
+      </c>
+      <c r="H211">
+        <v>8</v>
+      </c>
+      <c r="I211">
+        <v>1737</v>
+      </c>
+      <c r="J211">
+        <v>3</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>25</v>
+      </c>
+      <c r="O211">
+        <v>701</v>
+      </c>
+      <c r="P211">
+        <v>454</v>
+      </c>
+      <c r="Q211">
+        <v>2</v>
+      </c>
+      <c r="R211">
+        <v>89</v>
+      </c>
+      <c r="S211">
+        <v>566</v>
+      </c>
+      <c r="T211">
+        <v>28</v>
+      </c>
+      <c r="U211">
+        <v>157</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>1471</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>356</v>
+      </c>
+      <c r="F212">
+        <v>3</v>
+      </c>
+      <c r="G212">
+        <v>1827</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>1737</v>
+      </c>
+      <c r="J212">
+        <v>3</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>25</v>
+      </c>
+      <c r="O212">
+        <v>704</v>
+      </c>
+      <c r="P212">
+        <v>460</v>
+      </c>
+      <c r="Q212">
+        <v>6</v>
+      </c>
+      <c r="R212">
+        <v>89</v>
+      </c>
+      <c r="S212">
+        <v>566</v>
+      </c>
+      <c r="T212">
+        <v>31</v>
+      </c>
+      <c r="U212">
+        <v>160</v>
+      </c>
+      <c r="V212">
+        <v>3</v>
+      </c>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>1473</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>356</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+      <c r="G213">
+        <v>1829</v>
+      </c>
+      <c r="H213">
+        <v>7</v>
+      </c>
+      <c r="I213">
+        <v>1744</v>
+      </c>
+      <c r="J213">
+        <v>3</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>25</v>
+      </c>
+      <c r="O213">
+        <v>705</v>
+      </c>
+      <c r="P213">
+        <v>460</v>
+      </c>
+      <c r="Q213">
+        <v>6</v>
+      </c>
+      <c r="R213">
+        <v>89</v>
+      </c>
+      <c r="S213">
+        <v>567</v>
+      </c>
+      <c r="T213">
+        <v>29</v>
+      </c>
+      <c r="U213">
+        <v>161</v>
+      </c>
+      <c r="V213">
+        <v>1</v>
+      </c>
+      <c r="W213" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>1475</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>356</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+      <c r="G214">
+        <v>1831</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>1745</v>
+      </c>
+      <c r="J214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>25</v>
+      </c>
+      <c r="O214">
+        <v>706</v>
+      </c>
+      <c r="P214">
+        <v>460</v>
+      </c>
+      <c r="Q214">
+        <v>6</v>
+      </c>
+      <c r="R214">
+        <v>89</v>
+      </c>
+      <c r="S214">
+        <v>567</v>
+      </c>
+      <c r="T214">
+        <v>30</v>
+      </c>
+      <c r="U214">
+        <v>162</v>
+      </c>
+      <c r="V214">
+        <v>1</v>
+      </c>
+      <c r="W214" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>44101</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>1477</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>356</v>
+      </c>
+      <c r="F215">
+        <v>2</v>
+      </c>
+      <c r="G215">
+        <v>1833</v>
+      </c>
+      <c r="H215">
+        <v>4</v>
+      </c>
+      <c r="I215">
+        <v>1749</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>25</v>
+      </c>
+      <c r="O215">
+        <v>710</v>
+      </c>
+      <c r="P215">
+        <v>460</v>
+      </c>
+      <c r="Q215">
+        <v>6</v>
+      </c>
+      <c r="R215">
+        <v>89</v>
+      </c>
+      <c r="S215">
+        <v>567</v>
+      </c>
+      <c r="T215">
+        <v>32</v>
+      </c>
+      <c r="U215">
+        <v>164</v>
+      </c>
+      <c r="V215">
+        <v>2</v>
+      </c>
+      <c r="W215" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>1477</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>356</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>1833</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>1749</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>25</v>
+      </c>
+      <c r="O216">
+        <v>710</v>
+      </c>
+      <c r="P216">
+        <v>460</v>
+      </c>
+      <c r="Q216">
+        <v>6</v>
+      </c>
+      <c r="R216">
+        <v>89</v>
+      </c>
+      <c r="S216">
+        <v>567</v>
+      </c>
+      <c r="T216">
+        <v>28</v>
+      </c>
+      <c r="U216">
+        <v>164</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+      <c r="W216" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>1479</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>356</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+      <c r="G217">
+        <v>1835</v>
+      </c>
+      <c r="H217">
+        <v>6</v>
+      </c>
+      <c r="I217">
+        <v>1755</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>25</v>
+      </c>
+      <c r="O217">
+        <v>712</v>
+      </c>
+      <c r="P217">
+        <v>460</v>
+      </c>
+      <c r="Q217">
+        <v>6</v>
+      </c>
+      <c r="R217">
+        <v>89</v>
+      </c>
+      <c r="S217">
+        <v>567</v>
+      </c>
+      <c r="T217">
+        <v>29</v>
+      </c>
+      <c r="U217">
+        <v>166</v>
+      </c>
+      <c r="V217">
+        <v>2</v>
+      </c>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1480</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>356</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>1836</v>
+      </c>
+      <c r="H218">
+        <v>12</v>
+      </c>
+      <c r="I218">
+        <v>1767</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>25</v>
+      </c>
+      <c r="O218">
+        <v>713</v>
+      </c>
+      <c r="P218">
+        <v>460</v>
+      </c>
+      <c r="Q218">
+        <v>6</v>
+      </c>
+      <c r="R218">
+        <v>89</v>
+      </c>
+      <c r="S218">
+        <v>567</v>
+      </c>
+      <c r="T218">
+        <v>30</v>
+      </c>
+      <c r="U218">
+        <v>167</v>
+      </c>
+      <c r="V218">
+        <v>1</v>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B219">
+        <v>12</v>
+      </c>
+      <c r="C219">
+        <v>1492</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>356</v>
+      </c>
+      <c r="F219">
+        <v>12</v>
+      </c>
+      <c r="G219">
+        <v>1848</v>
+      </c>
+      <c r="H219">
+        <v>3</v>
+      </c>
+      <c r="I219">
+        <v>1770</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>25</v>
+      </c>
+      <c r="O219">
+        <v>725</v>
+      </c>
+      <c r="P219">
+        <v>460</v>
+      </c>
+      <c r="Q219">
+        <v>6</v>
+      </c>
+      <c r="R219">
+        <v>89</v>
+      </c>
+      <c r="S219">
+        <v>567</v>
+      </c>
+      <c r="T219">
+        <v>42</v>
+      </c>
+      <c r="U219">
+        <v>179</v>
+      </c>
+      <c r="V219">
+        <v>12</v>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>1492</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>356</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>1848</v>
+      </c>
+      <c r="H220">
+        <v>10</v>
+      </c>
+      <c r="I220">
+        <v>1780</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>25</v>
+      </c>
+      <c r="O220">
+        <v>721</v>
+      </c>
+      <c r="P220">
+        <v>461</v>
+      </c>
+      <c r="Q220">
+        <v>9</v>
+      </c>
+      <c r="R220">
+        <v>89</v>
+      </c>
+      <c r="S220">
+        <v>567</v>
+      </c>
+      <c r="T220">
+        <v>32</v>
+      </c>
+      <c r="U220">
+        <v>179</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>1493</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>356</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>1849</v>
+      </c>
+      <c r="H221">
+        <v>3</v>
+      </c>
+      <c r="I221">
+        <v>1783</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>25</v>
+      </c>
+      <c r="O221">
+        <v>722</v>
+      </c>
+      <c r="P221">
+        <v>461</v>
+      </c>
+      <c r="Q221">
+        <v>9</v>
+      </c>
+      <c r="R221">
+        <v>89</v>
+      </c>
+      <c r="S221">
+        <v>567</v>
+      </c>
+      <c r="T221">
+        <v>33</v>
+      </c>
+      <c r="U221">
+        <v>180</v>
+      </c>
+      <c r="V221">
+        <v>1</v>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>1498</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>356</v>
+      </c>
+      <c r="F222">
+        <v>5</v>
+      </c>
+      <c r="G222">
+        <v>1854</v>
+      </c>
+      <c r="H222">
+        <v>5</v>
+      </c>
+      <c r="I222">
+        <v>1788</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>25</v>
+      </c>
+      <c r="O222">
+        <v>727</v>
+      </c>
+      <c r="P222">
+        <v>461</v>
+      </c>
+      <c r="Q222">
+        <v>9</v>
+      </c>
+      <c r="R222">
+        <v>89</v>
+      </c>
+      <c r="S222">
+        <v>567</v>
+      </c>
+      <c r="T222">
+        <v>34</v>
+      </c>
+      <c r="U222">
+        <v>185</v>
+      </c>
+      <c r="V222">
+        <v>5</v>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>1499</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>356</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1855</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
+        <v>1790</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>25</v>
+      </c>
+      <c r="O223">
+        <v>728</v>
+      </c>
+      <c r="P223">
+        <v>461</v>
+      </c>
+      <c r="Q223">
+        <v>9</v>
+      </c>
+      <c r="R223">
+        <v>89</v>
+      </c>
+      <c r="S223">
+        <v>567</v>
+      </c>
+      <c r="T223">
+        <v>34</v>
+      </c>
+      <c r="U223">
+        <v>186</v>
+      </c>
+      <c r="V223">
+        <v>1</v>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>1502</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>356</v>
+      </c>
+      <c r="F224">
+        <v>3</v>
+      </c>
+      <c r="G224">
+        <v>1858</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>1790</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>25</v>
+      </c>
+      <c r="O224">
+        <v>731</v>
+      </c>
+      <c r="P224">
+        <v>461</v>
+      </c>
+      <c r="Q224">
+        <v>9</v>
+      </c>
+      <c r="R224">
+        <v>89</v>
+      </c>
+      <c r="S224">
+        <v>567</v>
+      </c>
+      <c r="T224">
+        <v>37</v>
+      </c>
+      <c r="U224">
+        <v>189</v>
+      </c>
+      <c r="V224">
+        <v>3</v>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225">
+        <v>1505</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>356</v>
+      </c>
+      <c r="F225">
+        <v>3</v>
+      </c>
+      <c r="G225">
+        <v>1861</v>
+      </c>
+      <c r="H225">
+        <v>9</v>
+      </c>
+      <c r="I225">
+        <v>1799</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>25</v>
+      </c>
+      <c r="O225">
+        <v>734</v>
+      </c>
+      <c r="P225">
+        <v>461</v>
+      </c>
+      <c r="Q225">
+        <v>9</v>
+      </c>
+      <c r="R225">
+        <v>89</v>
+      </c>
+      <c r="S225">
+        <v>567</v>
+      </c>
+      <c r="T225">
+        <v>37</v>
+      </c>
+      <c r="U225">
+        <v>192</v>
+      </c>
+      <c r="V225">
+        <v>3</v>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>1508</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>356</v>
+      </c>
+      <c r="F226">
+        <v>3</v>
+      </c>
+      <c r="G226">
+        <v>1864</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>1800</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>25</v>
+      </c>
+      <c r="O226">
+        <v>737</v>
+      </c>
+      <c r="P226">
+        <v>461</v>
+      </c>
+      <c r="Q226">
+        <v>9</v>
+      </c>
+      <c r="R226">
+        <v>89</v>
+      </c>
+      <c r="S226">
+        <v>567</v>
+      </c>
+      <c r="T226">
+        <v>39</v>
+      </c>
+      <c r="U226">
+        <v>195</v>
+      </c>
+      <c r="V226">
+        <v>3</v>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <v>1510</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>356</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+      <c r="G227">
+        <v>1866</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>1800</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>25</v>
+      </c>
+      <c r="O227">
+        <v>739</v>
+      </c>
+      <c r="P227">
+        <v>461</v>
+      </c>
+      <c r="Q227">
+        <v>9</v>
+      </c>
+      <c r="R227">
+        <v>89</v>
+      </c>
+      <c r="S227">
+        <v>567</v>
+      </c>
+      <c r="T227">
+        <v>41</v>
+      </c>
+      <c r="U227">
+        <v>197</v>
+      </c>
+      <c r="V227">
+        <v>2</v>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+      <c r="C228">
+        <v>1514</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>356</v>
+      </c>
+      <c r="F228">
+        <v>4</v>
+      </c>
+      <c r="G228">
+        <v>1870</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>1801</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>25</v>
+      </c>
+      <c r="O228">
+        <v>743</v>
+      </c>
+      <c r="P228">
+        <v>461</v>
+      </c>
+      <c r="Q228">
+        <v>9</v>
+      </c>
+      <c r="R228">
+        <v>89</v>
+      </c>
+      <c r="S228">
+        <v>567</v>
+      </c>
+      <c r="T228">
+        <v>44</v>
+      </c>
+      <c r="U228">
+        <v>201</v>
+      </c>
+      <c r="V228">
+        <v>4</v>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>1515</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>356</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>1871</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>1801</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>25</v>
+      </c>
+      <c r="O229">
+        <v>744</v>
+      </c>
+      <c r="P229">
+        <v>461</v>
+      </c>
+      <c r="Q229">
+        <v>9</v>
+      </c>
+      <c r="R229">
+        <v>89</v>
+      </c>
+      <c r="S229">
+        <v>567</v>
+      </c>
+      <c r="T229">
+        <v>45</v>
+      </c>
+      <c r="U229">
+        <v>202</v>
+      </c>
+      <c r="V229">
+        <v>1</v>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>1515</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>356</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>1871</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>1801</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>25</v>
+      </c>
+      <c r="O230">
+        <v>744</v>
+      </c>
+      <c r="P230">
+        <v>461</v>
+      </c>
+      <c r="Q230">
+        <v>9</v>
+      </c>
+      <c r="R230">
+        <v>89</v>
+      </c>
+      <c r="S230">
+        <v>567</v>
+      </c>
+      <c r="T230">
+        <v>45</v>
+      </c>
+      <c r="U230">
+        <v>202</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>1516</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>356</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>1872</v>
+      </c>
+      <c r="H231">
+        <v>7</v>
+      </c>
+      <c r="I231">
+        <v>1808</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>25</v>
+      </c>
+      <c r="O231">
+        <v>747</v>
+      </c>
+      <c r="P231">
+        <v>461</v>
+      </c>
+      <c r="Q231">
+        <v>9</v>
+      </c>
+      <c r="R231">
+        <v>89</v>
+      </c>
+      <c r="S231">
+        <v>567</v>
+      </c>
+      <c r="T231">
+        <v>39</v>
+      </c>
+      <c r="U231">
+        <v>203</v>
+      </c>
+      <c r="V231">
+        <v>1</v>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>1518</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>356</v>
+      </c>
+      <c r="F232">
+        <v>2</v>
+      </c>
+      <c r="G232">
+        <v>1874</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>1809</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>25</v>
+      </c>
+      <c r="T232">
+        <v>40</v>
+      </c>
+      <c r="U232">
+        <v>205</v>
+      </c>
+      <c r="V232">
+        <v>2</v>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>1520</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>356</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="G233">
+        <v>1876</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>1809</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>25</v>
+      </c>
+      <c r="T233">
+        <v>42</v>
+      </c>
+      <c r="U233">
+        <v>207</v>
+      </c>
+      <c r="V233">
+        <v>2</v>
+      </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>1524</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>356</v>
+      </c>
+      <c r="F234">
+        <v>4</v>
+      </c>
+      <c r="G234">
+        <v>1880</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>1809</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>25</v>
+      </c>
+      <c r="T234">
+        <v>46</v>
+      </c>
+      <c r="U234">
+        <v>211</v>
+      </c>
+      <c r="V234">
+        <v>4</v>
+      </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>1527</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>356</v>
+      </c>
+      <c r="F235">
+        <v>3</v>
+      </c>
+      <c r="G235">
+        <v>1883</v>
+      </c>
+      <c r="H235">
+        <v>9</v>
+      </c>
+      <c r="I235">
+        <v>1818</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>25</v>
+      </c>
+      <c r="T235">
+        <v>40</v>
+      </c>
+      <c r="U235">
+        <v>213</v>
+      </c>
+      <c r="V235">
+        <v>2</v>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W235"/>
+  <dimension ref="A1:W264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13963,11 +13963,26 @@
       <c r="N232">
         <v>25</v>
       </c>
+      <c r="O232">
+        <v>747</v>
+      </c>
+      <c r="P232">
+        <v>461</v>
+      </c>
+      <c r="Q232">
+        <v>9</v>
+      </c>
+      <c r="R232">
+        <v>89</v>
+      </c>
+      <c r="S232">
+        <v>567</v>
+      </c>
       <c r="T232">
         <v>40</v>
       </c>
       <c r="U232">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V232">
         <v>2</v>
@@ -14018,11 +14033,26 @@
       <c r="N233">
         <v>25</v>
       </c>
+      <c r="O233">
+        <v>747</v>
+      </c>
+      <c r="P233">
+        <v>461</v>
+      </c>
+      <c r="Q233">
+        <v>9</v>
+      </c>
+      <c r="R233">
+        <v>89</v>
+      </c>
+      <c r="S233">
+        <v>567</v>
+      </c>
       <c r="T233">
         <v>42</v>
       </c>
       <c r="U233">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="V233">
         <v>2</v>
@@ -14073,6 +14103,21 @@
       <c r="N234">
         <v>25</v>
       </c>
+      <c r="O234">
+        <v>747</v>
+      </c>
+      <c r="P234">
+        <v>461</v>
+      </c>
+      <c r="Q234">
+        <v>9</v>
+      </c>
+      <c r="R234">
+        <v>89</v>
+      </c>
+      <c r="S234">
+        <v>567</v>
+      </c>
       <c r="T234">
         <v>46</v>
       </c>
@@ -14128,6 +14173,21 @@
       <c r="N235">
         <v>25</v>
       </c>
+      <c r="O235">
+        <v>747</v>
+      </c>
+      <c r="P235">
+        <v>461</v>
+      </c>
+      <c r="Q235">
+        <v>9</v>
+      </c>
+      <c r="R235">
+        <v>89</v>
+      </c>
+      <c r="S235">
+        <v>567</v>
+      </c>
       <c r="T235">
         <v>40</v>
       </c>
@@ -14135,9 +14195,2039 @@
         <v>213</v>
       </c>
       <c r="V235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W235" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>1530</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>356</v>
+      </c>
+      <c r="F236">
+        <v>3</v>
+      </c>
+      <c r="G236">
+        <v>1886</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>1819</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>25</v>
+      </c>
+      <c r="O236">
+        <v>747</v>
+      </c>
+      <c r="P236">
+        <v>461</v>
+      </c>
+      <c r="Q236">
+        <v>9</v>
+      </c>
+      <c r="R236">
+        <v>89</v>
+      </c>
+      <c r="S236">
+        <v>567</v>
+      </c>
+      <c r="T236">
+        <v>41</v>
+      </c>
+      <c r="U236">
+        <v>214</v>
+      </c>
+      <c r="V236">
+        <v>1</v>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>1530</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>356</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>1886</v>
+      </c>
+      <c r="H237">
+        <v>5</v>
+      </c>
+      <c r="I237">
+        <v>1824</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>25</v>
+      </c>
+      <c r="O237">
+        <v>747</v>
+      </c>
+      <c r="P237">
+        <v>461</v>
+      </c>
+      <c r="Q237">
+        <v>9</v>
+      </c>
+      <c r="R237">
+        <v>89</v>
+      </c>
+      <c r="S237">
+        <v>567</v>
+      </c>
+      <c r="T237">
+        <v>36</v>
+      </c>
+      <c r="U237">
+        <v>214</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1531</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>356</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1887</v>
+      </c>
+      <c r="H238">
+        <v>5</v>
+      </c>
+      <c r="I238">
+        <v>1829</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>25</v>
+      </c>
+      <c r="O238">
+        <v>747</v>
+      </c>
+      <c r="P238">
+        <v>461</v>
+      </c>
+      <c r="Q238">
+        <v>9</v>
+      </c>
+      <c r="R238">
+        <v>89</v>
+      </c>
+      <c r="S238">
+        <v>567</v>
+      </c>
+      <c r="T238">
+        <v>32</v>
+      </c>
+      <c r="U238">
+        <v>215</v>
+      </c>
+      <c r="V238">
+        <v>1</v>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B239">
+        <v>25</v>
+      </c>
+      <c r="C239">
+        <v>1556</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>356</v>
+      </c>
+      <c r="F239">
+        <v>25</v>
+      </c>
+      <c r="G239">
+        <v>1912</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
+        <v>1831</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>25</v>
+      </c>
+      <c r="O239">
+        <v>770</v>
+      </c>
+      <c r="P239">
+        <v>461</v>
+      </c>
+      <c r="Q239">
+        <v>9</v>
+      </c>
+      <c r="R239">
+        <v>89</v>
+      </c>
+      <c r="S239">
+        <v>570</v>
+      </c>
+      <c r="T239">
+        <v>55</v>
+      </c>
+      <c r="U239">
+        <v>238</v>
+      </c>
+      <c r="V239">
+        <v>23</v>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>1558</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>356</v>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+      <c r="G240">
+        <v>1914</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>1831</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>25</v>
+      </c>
+      <c r="O240">
+        <v>770</v>
+      </c>
+      <c r="P240">
+        <v>461</v>
+      </c>
+      <c r="Q240">
+        <v>9</v>
+      </c>
+      <c r="R240">
+        <v>89</v>
+      </c>
+      <c r="S240">
+        <v>570</v>
+      </c>
+      <c r="T240">
+        <v>57</v>
+      </c>
+      <c r="U240">
+        <v>240</v>
+      </c>
+      <c r="V240">
+        <v>2</v>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B241">
+        <v>9</v>
+      </c>
+      <c r="C241">
+        <v>1567</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>356</v>
+      </c>
+      <c r="F241">
+        <v>9</v>
+      </c>
+      <c r="G241">
+        <v>1923</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>1832</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>25</v>
+      </c>
+      <c r="O241">
+        <v>778</v>
+      </c>
+      <c r="P241">
+        <v>461</v>
+      </c>
+      <c r="Q241">
+        <v>9</v>
+      </c>
+      <c r="R241">
+        <v>89</v>
+      </c>
+      <c r="S241">
+        <v>571</v>
+      </c>
+      <c r="T241">
+        <v>65</v>
+      </c>
+      <c r="U241">
+        <v>248</v>
+      </c>
+      <c r="V241">
+        <v>8</v>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B242">
+        <v>11</v>
+      </c>
+      <c r="C242">
+        <v>1578</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>356</v>
+      </c>
+      <c r="F242">
+        <v>11</v>
+      </c>
+      <c r="G242">
+        <v>1934</v>
+      </c>
+      <c r="H242">
+        <v>3</v>
+      </c>
+      <c r="I242">
+        <v>1835</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>25</v>
+      </c>
+      <c r="O242">
+        <v>806</v>
+      </c>
+      <c r="P242">
+        <v>467</v>
+      </c>
+      <c r="Q242">
+        <v>2</v>
+      </c>
+      <c r="R242">
+        <v>90</v>
+      </c>
+      <c r="S242">
+        <v>579</v>
+      </c>
+      <c r="T242">
+        <v>70</v>
+      </c>
+      <c r="U242">
+        <v>258</v>
+      </c>
+      <c r="V242">
+        <v>10</v>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>1579</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>356</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1935</v>
+      </c>
+      <c r="H243">
+        <v>5</v>
+      </c>
+      <c r="I243">
+        <v>1840</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>25</v>
+      </c>
+      <c r="O243">
+        <v>806</v>
+      </c>
+      <c r="P243">
+        <v>467</v>
+      </c>
+      <c r="Q243">
+        <v>2</v>
+      </c>
+      <c r="R243">
+        <v>90</v>
+      </c>
+      <c r="S243">
+        <v>579</v>
+      </c>
+      <c r="T243">
+        <v>66</v>
+      </c>
+      <c r="U243">
+        <v>260</v>
+      </c>
+      <c r="V243">
+        <v>2</v>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B244">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <v>1584</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>356</v>
+      </c>
+      <c r="F244">
+        <v>5</v>
+      </c>
+      <c r="G244">
+        <v>1940</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>1841</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>25</v>
+      </c>
+      <c r="O244">
+        <v>811</v>
+      </c>
+      <c r="P244">
+        <v>467</v>
+      </c>
+      <c r="Q244">
+        <v>2</v>
+      </c>
+      <c r="R244">
+        <v>90</v>
+      </c>
+      <c r="S244">
+        <v>579</v>
+      </c>
+      <c r="T244">
+        <v>70</v>
+      </c>
+      <c r="U244">
+        <v>265</v>
+      </c>
+      <c r="V244">
+        <v>5</v>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>1585</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>356</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>1941</v>
+      </c>
+      <c r="H245">
+        <v>7</v>
+      </c>
+      <c r="I245">
+        <v>1848</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>25</v>
+      </c>
+      <c r="O245">
+        <v>812</v>
+      </c>
+      <c r="P245">
+        <v>467</v>
+      </c>
+      <c r="Q245">
+        <v>2</v>
+      </c>
+      <c r="R245">
+        <v>90</v>
+      </c>
+      <c r="S245">
+        <v>579</v>
+      </c>
+      <c r="T245">
+        <v>64</v>
+      </c>
+      <c r="U245">
+        <v>266</v>
+      </c>
+      <c r="V245">
+        <v>1</v>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>1587</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>356</v>
+      </c>
+      <c r="F246">
+        <v>2</v>
+      </c>
+      <c r="G246">
+        <v>1943</v>
+      </c>
+      <c r="H246">
+        <v>4</v>
+      </c>
+      <c r="I246">
+        <v>1852</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>25</v>
+      </c>
+      <c r="O246">
+        <v>814</v>
+      </c>
+      <c r="P246">
+        <v>467</v>
+      </c>
+      <c r="Q246">
+        <v>2</v>
+      </c>
+      <c r="R246">
+        <v>90</v>
+      </c>
+      <c r="S246">
+        <v>579</v>
+      </c>
+      <c r="T246">
+        <v>62</v>
+      </c>
+      <c r="U246">
+        <v>268</v>
+      </c>
+      <c r="V246">
+        <v>2</v>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>44133</v>
+      </c>
+      <c r="B247">
+        <v>6</v>
+      </c>
+      <c r="C247">
+        <v>1593</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>356</v>
+      </c>
+      <c r="F247">
+        <v>6</v>
+      </c>
+      <c r="G247">
+        <v>1949</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247">
+        <v>1854</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>25</v>
+      </c>
+      <c r="O247">
+        <v>820</v>
+      </c>
+      <c r="P247">
+        <v>467</v>
+      </c>
+      <c r="Q247">
+        <v>2</v>
+      </c>
+      <c r="R247">
+        <v>90</v>
+      </c>
+      <c r="S247">
+        <v>579</v>
+      </c>
+      <c r="T247">
+        <v>66</v>
+      </c>
+      <c r="U247">
+        <v>274</v>
+      </c>
+      <c r="V247">
+        <v>6</v>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>1594</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>356</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1950</v>
+      </c>
+      <c r="H248">
+        <v>3</v>
+      </c>
+      <c r="I248">
+        <v>1857</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>25</v>
+      </c>
+      <c r="O248">
+        <v>821</v>
+      </c>
+      <c r="P248">
+        <v>467</v>
+      </c>
+      <c r="Q248">
+        <v>2</v>
+      </c>
+      <c r="R248">
+        <v>90</v>
+      </c>
+      <c r="S248">
+        <v>579</v>
+      </c>
+      <c r="T248">
+        <v>64</v>
+      </c>
+      <c r="U248">
+        <v>275</v>
+      </c>
+      <c r="V248">
+        <v>1</v>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B249">
+        <v>7</v>
+      </c>
+      <c r="C249">
+        <v>1601</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>356</v>
+      </c>
+      <c r="F249">
+        <v>7</v>
+      </c>
+      <c r="G249">
+        <v>1957</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>1857</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>25</v>
+      </c>
+      <c r="O249">
+        <v>821</v>
+      </c>
+      <c r="P249">
+        <v>467</v>
+      </c>
+      <c r="Q249">
+        <v>2</v>
+      </c>
+      <c r="R249">
+        <v>90</v>
+      </c>
+      <c r="S249">
+        <v>579</v>
+      </c>
+      <c r="T249">
+        <v>71</v>
+      </c>
+      <c r="U249">
+        <v>282</v>
+      </c>
+      <c r="V249">
+        <v>7</v>
+      </c>
+      <c r="W249" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>1603</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>356</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250">
+        <v>1959</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>1857</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>25</v>
+      </c>
+      <c r="O250">
+        <v>823</v>
+      </c>
+      <c r="P250">
+        <v>467</v>
+      </c>
+      <c r="Q250">
+        <v>2</v>
+      </c>
+      <c r="R250">
+        <v>90</v>
+      </c>
+      <c r="S250">
+        <v>579</v>
+      </c>
+      <c r="T250">
+        <v>73</v>
+      </c>
+      <c r="U250">
+        <v>284</v>
+      </c>
+      <c r="V250">
+        <v>2</v>
+      </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>1607</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>356</v>
+      </c>
+      <c r="F251">
+        <v>4</v>
+      </c>
+      <c r="G251">
+        <v>1963</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>1857</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>25</v>
+      </c>
+      <c r="O251">
+        <v>831</v>
+      </c>
+      <c r="P251">
+        <v>467</v>
+      </c>
+      <c r="Q251">
+        <v>1</v>
+      </c>
+      <c r="R251">
+        <v>90</v>
+      </c>
+      <c r="S251">
+        <v>570</v>
+      </c>
+      <c r="T251">
+        <v>77</v>
+      </c>
+      <c r="U251">
+        <v>288</v>
+      </c>
+      <c r="V251">
+        <v>4</v>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B252">
+        <v>5</v>
+      </c>
+      <c r="C252">
+        <v>1612</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>356</v>
+      </c>
+      <c r="F252">
+        <v>5</v>
+      </c>
+      <c r="G252">
+        <v>1968</v>
+      </c>
+      <c r="H252">
+        <v>11</v>
+      </c>
+      <c r="I252">
+        <v>1868</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>25</v>
+      </c>
+      <c r="O252">
+        <v>835</v>
+      </c>
+      <c r="P252">
+        <v>467</v>
+      </c>
+      <c r="Q252">
+        <v>1</v>
+      </c>
+      <c r="R252">
+        <v>90</v>
+      </c>
+      <c r="S252">
+        <v>571</v>
+      </c>
+      <c r="T252">
+        <v>73</v>
+      </c>
+      <c r="U252">
+        <v>292</v>
+      </c>
+      <c r="V252">
+        <v>4</v>
+      </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>1615</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>356</v>
+      </c>
+      <c r="F253">
+        <v>3</v>
+      </c>
+      <c r="G253">
+        <v>1971</v>
+      </c>
+      <c r="H253">
+        <v>5</v>
+      </c>
+      <c r="I253">
+        <v>1873</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>25</v>
+      </c>
+      <c r="O253">
+        <v>838</v>
+      </c>
+      <c r="P253">
+        <v>467</v>
+      </c>
+      <c r="Q253">
+        <v>1</v>
+      </c>
+      <c r="R253">
+        <v>90</v>
+      </c>
+      <c r="S253">
+        <v>571</v>
+      </c>
+      <c r="T253">
+        <v>70</v>
+      </c>
+      <c r="U253">
+        <v>294</v>
+      </c>
+      <c r="V253">
+        <v>2</v>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+      <c r="C254">
+        <v>1617</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>356</v>
+      </c>
+      <c r="F254">
+        <v>2</v>
+      </c>
+      <c r="G254">
+        <v>1973</v>
+      </c>
+      <c r="H254">
+        <v>8</v>
+      </c>
+      <c r="I254">
+        <v>1881</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>25</v>
+      </c>
+      <c r="O254">
+        <v>840</v>
+      </c>
+      <c r="P254">
+        <v>467</v>
+      </c>
+      <c r="Q254">
+        <v>1</v>
+      </c>
+      <c r="R254">
+        <v>90</v>
+      </c>
+      <c r="S254">
+        <v>571</v>
+      </c>
+      <c r="T254">
+        <v>65</v>
+      </c>
+      <c r="U254">
+        <v>296</v>
+      </c>
+      <c r="V254">
+        <v>2</v>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1618</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>356</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1974</v>
+      </c>
+      <c r="H255">
+        <v>24</v>
+      </c>
+      <c r="I255">
+        <v>1905</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>25</v>
+      </c>
+      <c r="O255">
+        <v>841</v>
+      </c>
+      <c r="P255">
+        <v>467</v>
+      </c>
+      <c r="Q255">
+        <v>1</v>
+      </c>
+      <c r="R255">
+        <v>90</v>
+      </c>
+      <c r="S255">
+        <v>571</v>
+      </c>
+      <c r="T255">
+        <v>42</v>
+      </c>
+      <c r="U255">
+        <v>297</v>
+      </c>
+      <c r="V255">
+        <v>1</v>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+      <c r="C256">
+        <v>1620</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>356</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>1976</v>
+      </c>
+      <c r="H256">
+        <v>3</v>
+      </c>
+      <c r="I256">
+        <v>1908</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>25</v>
+      </c>
+      <c r="O256">
+        <v>842</v>
+      </c>
+      <c r="P256">
+        <v>467</v>
+      </c>
+      <c r="Q256">
+        <v>1</v>
+      </c>
+      <c r="R256">
+        <v>90</v>
+      </c>
+      <c r="S256">
+        <v>572</v>
+      </c>
+      <c r="T256">
+        <v>40</v>
+      </c>
+      <c r="U256">
+        <v>298</v>
+      </c>
+      <c r="V256">
+        <v>1</v>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>44143</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>1626</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>356</v>
+      </c>
+      <c r="F257">
+        <v>6</v>
+      </c>
+      <c r="G257">
+        <v>1982</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1909</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>25</v>
+      </c>
+      <c r="O257">
+        <v>847</v>
+      </c>
+      <c r="P257">
+        <v>467</v>
+      </c>
+      <c r="Q257">
+        <v>1</v>
+      </c>
+      <c r="R257">
+        <v>90</v>
+      </c>
+      <c r="S257">
+        <v>573</v>
+      </c>
+      <c r="T257">
+        <v>44</v>
+      </c>
+      <c r="U257">
+        <v>303</v>
+      </c>
+      <c r="V257">
+        <v>5</v>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B258">
+        <v>4</v>
+      </c>
+      <c r="C258">
+        <v>1630</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>356</v>
+      </c>
+      <c r="F258">
+        <v>4</v>
+      </c>
+      <c r="G258">
+        <v>1986</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>1910</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>25</v>
+      </c>
+      <c r="O258">
+        <v>851</v>
+      </c>
+      <c r="P258">
+        <v>467</v>
+      </c>
+      <c r="Q258">
+        <v>1</v>
+      </c>
+      <c r="R258">
+        <v>90</v>
+      </c>
+      <c r="S258">
+        <v>573</v>
+      </c>
+      <c r="T258">
+        <v>47</v>
+      </c>
+      <c r="U258">
+        <v>307</v>
+      </c>
+      <c r="V258">
+        <v>4</v>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>1631</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>356</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>1987</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>1910</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>25</v>
+      </c>
+      <c r="O259">
+        <v>852</v>
+      </c>
+      <c r="P259">
+        <v>467</v>
+      </c>
+      <c r="Q259">
+        <v>1</v>
+      </c>
+      <c r="R259">
+        <v>90</v>
+      </c>
+      <c r="S259">
+        <v>573</v>
+      </c>
+      <c r="T259">
+        <v>48</v>
+      </c>
+      <c r="U259">
+        <v>308</v>
+      </c>
+      <c r="V259">
+        <v>1</v>
+      </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>1632</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>356</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>1988</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260">
+        <v>1911</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>25</v>
+      </c>
+      <c r="O260">
+        <v>853</v>
+      </c>
+      <c r="P260">
+        <v>467</v>
+      </c>
+      <c r="Q260">
+        <v>1</v>
+      </c>
+      <c r="R260">
+        <v>90</v>
+      </c>
+      <c r="S260">
+        <v>573</v>
+      </c>
+      <c r="T260">
+        <v>48</v>
+      </c>
+      <c r="U260">
+        <v>309</v>
+      </c>
+      <c r="V260">
+        <v>1</v>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>1635</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>356</v>
+      </c>
+      <c r="F261">
+        <v>3</v>
+      </c>
+      <c r="G261">
+        <v>1991</v>
+      </c>
+      <c r="H261">
+        <v>2</v>
+      </c>
+      <c r="I261">
+        <v>1913</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>25</v>
+      </c>
+      <c r="O261">
+        <v>854</v>
+      </c>
+      <c r="P261">
+        <v>467</v>
+      </c>
+      <c r="Q261">
+        <v>1</v>
+      </c>
+      <c r="R261">
+        <v>90</v>
+      </c>
+      <c r="S261">
+        <v>573</v>
+      </c>
+      <c r="T261">
+        <v>47</v>
+      </c>
+      <c r="U261">
+        <v>310</v>
+      </c>
+      <c r="V261">
+        <v>1</v>
+      </c>
+      <c r="W261" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B262">
+        <v>4</v>
+      </c>
+      <c r="C262">
+        <v>1639</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>356</v>
+      </c>
+      <c r="F262">
+        <v>4</v>
+      </c>
+      <c r="G262">
+        <v>1995</v>
+      </c>
+      <c r="H262">
+        <v>4</v>
+      </c>
+      <c r="I262">
+        <v>1917</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>25</v>
+      </c>
+      <c r="O262">
+        <v>858</v>
+      </c>
+      <c r="P262">
+        <v>467</v>
+      </c>
+      <c r="Q262">
+        <v>1</v>
+      </c>
+      <c r="R262">
+        <v>90</v>
+      </c>
+      <c r="S262">
+        <v>573</v>
+      </c>
+      <c r="T262">
+        <v>48</v>
+      </c>
+      <c r="U262">
+        <v>314</v>
+      </c>
+      <c r="V262">
+        <v>4</v>
+      </c>
+      <c r="W262" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>1642</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>356</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+      <c r="G263">
+        <v>1998</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>1918</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>25</v>
+      </c>
+      <c r="O263">
+        <v>858</v>
+      </c>
+      <c r="P263">
+        <v>467</v>
+      </c>
+      <c r="Q263">
+        <v>1</v>
+      </c>
+      <c r="R263">
+        <v>90</v>
+      </c>
+      <c r="S263">
+        <v>573</v>
+      </c>
+      <c r="T263">
+        <v>51</v>
+      </c>
+      <c r="U263">
+        <v>317</v>
+      </c>
+      <c r="V263">
+        <v>3</v>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <v>1645</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>356</v>
+      </c>
+      <c r="F264">
+        <v>3</v>
+      </c>
+      <c r="G264">
+        <v>2001</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>1918</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>25</v>
+      </c>
+      <c r="O264">
+        <v>858</v>
+      </c>
+      <c r="P264">
+        <v>467</v>
+      </c>
+      <c r="Q264">
+        <v>1</v>
+      </c>
+      <c r="R264">
+        <v>90</v>
+      </c>
+      <c r="S264">
+        <v>573</v>
+      </c>
+      <c r="T264">
+        <v>53</v>
+      </c>
+      <c r="U264">
+        <v>319</v>
+      </c>
+      <c r="V264">
+        <v>2</v>
+      </c>
+      <c r="W264" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W264"/>
+  <dimension ref="A1:W265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16233,6 +16233,76 @@
         </is>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>1645</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>356</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>2001</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>1918</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>25</v>
+      </c>
+      <c r="O265">
+        <v>858</v>
+      </c>
+      <c r="P265">
+        <v>467</v>
+      </c>
+      <c r="Q265">
+        <v>1</v>
+      </c>
+      <c r="R265">
+        <v>90</v>
+      </c>
+      <c r="S265">
+        <v>573</v>
+      </c>
+      <c r="T265">
+        <v>53</v>
+      </c>
+      <c r="U265">
+        <v>319</v>
+      </c>
+      <c r="V265">
+        <v>1</v>
+      </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W265"/>
+  <dimension ref="A1:W295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16274,19 +16274,19 @@
         <v>25</v>
       </c>
       <c r="O265">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="P265">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="Q265">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R265">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S265">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="T265">
         <v>53</v>
@@ -16298,6 +16298,2103 @@
         <v>1</v>
       </c>
       <c r="W265" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B266">
+        <v>4</v>
+      </c>
+      <c r="C266">
+        <v>1649</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>356</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="G266">
+        <v>2005</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>1919</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>25</v>
+      </c>
+      <c r="O266">
+        <v>866</v>
+      </c>
+      <c r="P266">
+        <v>475</v>
+      </c>
+      <c r="Q266">
+        <v>4</v>
+      </c>
+      <c r="R266">
+        <v>89</v>
+      </c>
+      <c r="S266">
+        <v>571</v>
+      </c>
+      <c r="T266">
+        <v>57</v>
+      </c>
+      <c r="U266">
+        <v>323</v>
+      </c>
+      <c r="V266">
+        <v>4</v>
+      </c>
+      <c r="W266" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <v>1652</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>356</v>
+      </c>
+      <c r="F267">
+        <v>3</v>
+      </c>
+      <c r="G267">
+        <v>2008</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>1919</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>25</v>
+      </c>
+      <c r="O267">
+        <v>869</v>
+      </c>
+      <c r="P267">
+        <v>475</v>
+      </c>
+      <c r="Q267">
+        <v>4</v>
+      </c>
+      <c r="R267">
+        <v>89</v>
+      </c>
+      <c r="S267">
+        <v>571</v>
+      </c>
+      <c r="T267">
+        <v>60</v>
+      </c>
+      <c r="U267">
+        <v>326</v>
+      </c>
+      <c r="V267">
+        <v>3</v>
+      </c>
+      <c r="W267" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268">
+        <v>1654</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>356</v>
+      </c>
+      <c r="F268">
+        <v>2</v>
+      </c>
+      <c r="G268">
+        <v>2010</v>
+      </c>
+      <c r="H268">
+        <v>29</v>
+      </c>
+      <c r="I268">
+        <v>1948</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>25</v>
+      </c>
+      <c r="O268">
+        <v>871</v>
+      </c>
+      <c r="P268">
+        <v>475</v>
+      </c>
+      <c r="Q268">
+        <v>4</v>
+      </c>
+      <c r="R268">
+        <v>89</v>
+      </c>
+      <c r="S268">
+        <v>571</v>
+      </c>
+      <c r="T268">
+        <v>33</v>
+      </c>
+      <c r="U268">
+        <v>328</v>
+      </c>
+      <c r="V268">
+        <v>2</v>
+      </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>1657</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>356</v>
+      </c>
+      <c r="F269">
+        <v>3</v>
+      </c>
+      <c r="G269">
+        <v>2013</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>1948</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>25</v>
+      </c>
+      <c r="O269">
+        <v>874</v>
+      </c>
+      <c r="P269">
+        <v>475</v>
+      </c>
+      <c r="Q269">
+        <v>4</v>
+      </c>
+      <c r="R269">
+        <v>89</v>
+      </c>
+      <c r="S269">
+        <v>571</v>
+      </c>
+      <c r="T269">
+        <v>36</v>
+      </c>
+      <c r="U269">
+        <v>331</v>
+      </c>
+      <c r="V269">
+        <v>3</v>
+      </c>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B270">
+        <v>6</v>
+      </c>
+      <c r="C270">
+        <v>1663</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>356</v>
+      </c>
+      <c r="F270">
+        <v>6</v>
+      </c>
+      <c r="G270">
+        <v>2019</v>
+      </c>
+      <c r="H270">
+        <v>4</v>
+      </c>
+      <c r="I270">
+        <v>1952</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>25</v>
+      </c>
+      <c r="O270">
+        <v>879</v>
+      </c>
+      <c r="P270">
+        <v>477</v>
+      </c>
+      <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="R270">
+        <v>89</v>
+      </c>
+      <c r="S270">
+        <v>571</v>
+      </c>
+      <c r="T270">
+        <v>35</v>
+      </c>
+      <c r="U270">
+        <v>336</v>
+      </c>
+      <c r="V270">
+        <v>5</v>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B271">
+        <v>9</v>
+      </c>
+      <c r="C271">
+        <v>1672</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>356</v>
+      </c>
+      <c r="F271">
+        <v>9</v>
+      </c>
+      <c r="G271">
+        <v>2028</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>1953</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>25</v>
+      </c>
+      <c r="O271">
+        <v>888</v>
+      </c>
+      <c r="P271">
+        <v>477</v>
+      </c>
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <v>89</v>
+      </c>
+      <c r="S271">
+        <v>571</v>
+      </c>
+      <c r="T271">
+        <v>45</v>
+      </c>
+      <c r="U271">
+        <v>345</v>
+      </c>
+      <c r="V271">
+        <v>9</v>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>44158</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272">
+        <v>1674</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>356</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
+      </c>
+      <c r="G272">
+        <v>2030</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>1953</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>25</v>
+      </c>
+      <c r="O272">
+        <v>890</v>
+      </c>
+      <c r="P272">
+        <v>477</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <v>89</v>
+      </c>
+      <c r="S272">
+        <v>571</v>
+      </c>
+      <c r="T272">
+        <v>48</v>
+      </c>
+      <c r="U272">
+        <v>347</v>
+      </c>
+      <c r="V272">
+        <v>2</v>
+      </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>1676</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>356</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="G273">
+        <v>2032</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>1954</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>25</v>
+      </c>
+      <c r="O273">
+        <v>892</v>
+      </c>
+      <c r="P273">
+        <v>477</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <v>89</v>
+      </c>
+      <c r="S273">
+        <v>571</v>
+      </c>
+      <c r="T273">
+        <v>49</v>
+      </c>
+      <c r="U273">
+        <v>349</v>
+      </c>
+      <c r="V273">
+        <v>2</v>
+      </c>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B274">
+        <v>8</v>
+      </c>
+      <c r="C274">
+        <v>1684</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>356</v>
+      </c>
+      <c r="F274">
+        <v>8</v>
+      </c>
+      <c r="G274">
+        <v>2040</v>
+      </c>
+      <c r="H274">
+        <v>2</v>
+      </c>
+      <c r="I274">
+        <v>1956</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>25</v>
+      </c>
+      <c r="O274">
+        <v>900</v>
+      </c>
+      <c r="P274">
+        <v>477</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274">
+        <v>89</v>
+      </c>
+      <c r="S274">
+        <v>571</v>
+      </c>
+      <c r="T274">
+        <v>55</v>
+      </c>
+      <c r="U274">
+        <v>356</v>
+      </c>
+      <c r="V274">
+        <v>8</v>
+      </c>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>1685</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>356</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>2041</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>1956</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>25</v>
+      </c>
+      <c r="O275">
+        <v>901</v>
+      </c>
+      <c r="P275">
+        <v>477</v>
+      </c>
+      <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275">
+        <v>89</v>
+      </c>
+      <c r="S275">
+        <v>571</v>
+      </c>
+      <c r="T275">
+        <v>55</v>
+      </c>
+      <c r="U275">
+        <v>357</v>
+      </c>
+      <c r="V275">
+        <v>0</v>
+      </c>
+      <c r="W275" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B276">
+        <v>7</v>
+      </c>
+      <c r="C276">
+        <v>1692</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>356</v>
+      </c>
+      <c r="F276">
+        <v>7</v>
+      </c>
+      <c r="G276">
+        <v>2048</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276">
+        <v>1957</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>25</v>
+      </c>
+      <c r="O276">
+        <v>908</v>
+      </c>
+      <c r="P276">
+        <v>477</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>89</v>
+      </c>
+      <c r="S276">
+        <v>571</v>
+      </c>
+      <c r="T276">
+        <v>63</v>
+      </c>
+      <c r="U276">
+        <v>364</v>
+      </c>
+      <c r="V276">
+        <v>7</v>
+      </c>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>1695</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>356</v>
+      </c>
+      <c r="F277">
+        <v>3</v>
+      </c>
+      <c r="G277">
+        <v>2051</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>1957</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>25</v>
+      </c>
+      <c r="O277">
+        <v>912</v>
+      </c>
+      <c r="P277">
+        <v>477</v>
+      </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>89</v>
+      </c>
+      <c r="S277">
+        <v>571</v>
+      </c>
+      <c r="T277">
+        <v>67</v>
+      </c>
+      <c r="U277">
+        <v>367</v>
+      </c>
+      <c r="V277">
+        <v>3</v>
+      </c>
+      <c r="W277" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>44164</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278">
+        <v>1697</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>356</v>
+      </c>
+      <c r="F278">
+        <v>2</v>
+      </c>
+      <c r="G278">
+        <v>2053</v>
+      </c>
+      <c r="H278">
+        <v>2</v>
+      </c>
+      <c r="I278">
+        <v>1959</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>25</v>
+      </c>
+      <c r="O278">
+        <v>912</v>
+      </c>
+      <c r="P278">
+        <v>477</v>
+      </c>
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <v>89</v>
+      </c>
+      <c r="S278">
+        <v>571</v>
+      </c>
+      <c r="T278">
+        <v>66</v>
+      </c>
+      <c r="U278">
+        <v>369</v>
+      </c>
+      <c r="V278">
+        <v>2</v>
+      </c>
+      <c r="W278" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>1701</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>356</v>
+      </c>
+      <c r="F279">
+        <v>4</v>
+      </c>
+      <c r="G279">
+        <v>2057</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>1960</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>25</v>
+      </c>
+      <c r="O279">
+        <v>916</v>
+      </c>
+      <c r="P279">
+        <v>477</v>
+      </c>
+      <c r="Q279">
+        <v>0</v>
+      </c>
+      <c r="R279">
+        <v>89</v>
+      </c>
+      <c r="S279">
+        <v>571</v>
+      </c>
+      <c r="T279">
+        <v>69</v>
+      </c>
+      <c r="U279">
+        <v>373</v>
+      </c>
+      <c r="V279">
+        <v>4</v>
+      </c>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>1704</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>356</v>
+      </c>
+      <c r="F280">
+        <v>3</v>
+      </c>
+      <c r="G280">
+        <v>2060</v>
+      </c>
+      <c r="H280">
+        <v>3</v>
+      </c>
+      <c r="I280">
+        <v>1963</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>25</v>
+      </c>
+      <c r="O280">
+        <v>919</v>
+      </c>
+      <c r="P280">
+        <v>477</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>89</v>
+      </c>
+      <c r="S280">
+        <v>571</v>
+      </c>
+      <c r="T280">
+        <v>69</v>
+      </c>
+      <c r="U280">
+        <v>376</v>
+      </c>
+      <c r="V280">
+        <v>3</v>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>1705</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>356</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>2061</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>1964</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>25</v>
+      </c>
+      <c r="O281">
+        <v>920</v>
+      </c>
+      <c r="P281">
+        <v>477</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>89</v>
+      </c>
+      <c r="S281">
+        <v>571</v>
+      </c>
+      <c r="T281">
+        <v>69</v>
+      </c>
+      <c r="U281">
+        <v>377</v>
+      </c>
+      <c r="V281">
+        <v>1</v>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B282">
+        <v>9</v>
+      </c>
+      <c r="C282">
+        <v>1714</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>356</v>
+      </c>
+      <c r="F282">
+        <v>9</v>
+      </c>
+      <c r="G282">
+        <v>2070</v>
+      </c>
+      <c r="H282">
+        <v>11</v>
+      </c>
+      <c r="I282">
+        <v>1975</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>25</v>
+      </c>
+      <c r="O282">
+        <v>929</v>
+      </c>
+      <c r="P282">
+        <v>477</v>
+      </c>
+      <c r="Q282">
+        <v>0</v>
+      </c>
+      <c r="R282">
+        <v>89</v>
+      </c>
+      <c r="S282">
+        <v>571</v>
+      </c>
+      <c r="T282">
+        <v>67</v>
+      </c>
+      <c r="U282">
+        <v>386</v>
+      </c>
+      <c r="V282">
+        <v>9</v>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>1714</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>356</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>2070</v>
+      </c>
+      <c r="H283">
+        <v>9</v>
+      </c>
+      <c r="I283">
+        <v>1984</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>25</v>
+      </c>
+      <c r="O283">
+        <v>929</v>
+      </c>
+      <c r="P283">
+        <v>477</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>89</v>
+      </c>
+      <c r="S283">
+        <v>571</v>
+      </c>
+      <c r="T283">
+        <v>59</v>
+      </c>
+      <c r="U283">
+        <v>386</v>
+      </c>
+      <c r="V283">
+        <v>0</v>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>44170</v>
+      </c>
+      <c r="B284">
+        <v>9</v>
+      </c>
+      <c r="C284">
+        <v>1723</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>356</v>
+      </c>
+      <c r="F284">
+        <v>9</v>
+      </c>
+      <c r="G284">
+        <v>2079</v>
+      </c>
+      <c r="H284">
+        <v>11</v>
+      </c>
+      <c r="I284">
+        <v>1995</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>25</v>
+      </c>
+      <c r="O284">
+        <v>938</v>
+      </c>
+      <c r="P284">
+        <v>477</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>89</v>
+      </c>
+      <c r="S284">
+        <v>571</v>
+      </c>
+      <c r="T284">
+        <v>58</v>
+      </c>
+      <c r="U284">
+        <v>395</v>
+      </c>
+      <c r="V284">
+        <v>9</v>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>44171</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>1723</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>356</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>2079</v>
+      </c>
+      <c r="H285">
+        <v>3</v>
+      </c>
+      <c r="I285">
+        <v>1998</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>25</v>
+      </c>
+      <c r="O285">
+        <v>938</v>
+      </c>
+      <c r="P285">
+        <v>477</v>
+      </c>
+      <c r="Q285">
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <v>89</v>
+      </c>
+      <c r="S285">
+        <v>571</v>
+      </c>
+      <c r="T285">
+        <v>55</v>
+      </c>
+      <c r="U285">
+        <v>395</v>
+      </c>
+      <c r="V285">
+        <v>0</v>
+      </c>
+      <c r="W285" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>1724</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>356</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>2080</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>1999</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>25</v>
+      </c>
+      <c r="O286">
+        <v>939</v>
+      </c>
+      <c r="P286">
+        <v>477</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>89</v>
+      </c>
+      <c r="S286">
+        <v>571</v>
+      </c>
+      <c r="T286">
+        <v>55</v>
+      </c>
+      <c r="U286">
+        <v>396</v>
+      </c>
+      <c r="V286">
+        <v>1</v>
+      </c>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B287">
+        <v>6</v>
+      </c>
+      <c r="C287">
+        <v>1730</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>356</v>
+      </c>
+      <c r="F287">
+        <v>6</v>
+      </c>
+      <c r="G287">
+        <v>2086</v>
+      </c>
+      <c r="H287">
+        <v>8</v>
+      </c>
+      <c r="I287">
+        <v>2007</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>25</v>
+      </c>
+      <c r="O287">
+        <v>947</v>
+      </c>
+      <c r="P287">
+        <v>478</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>89</v>
+      </c>
+      <c r="S287">
+        <v>571</v>
+      </c>
+      <c r="T287">
+        <v>54</v>
+      </c>
+      <c r="U287">
+        <v>402</v>
+      </c>
+      <c r="V287">
+        <v>6</v>
+      </c>
+      <c r="W287" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>44174</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>1733</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>356</v>
+      </c>
+      <c r="F288">
+        <v>3</v>
+      </c>
+      <c r="G288">
+        <v>2089</v>
+      </c>
+      <c r="H288">
+        <v>2</v>
+      </c>
+      <c r="I288">
+        <v>2009</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>25</v>
+      </c>
+      <c r="O288">
+        <v>950</v>
+      </c>
+      <c r="P288">
+        <v>478</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>89</v>
+      </c>
+      <c r="S288">
+        <v>571</v>
+      </c>
+      <c r="T288">
+        <v>55</v>
+      </c>
+      <c r="U288">
+        <v>405</v>
+      </c>
+      <c r="V288">
+        <v>3</v>
+      </c>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1733</v>
+      </c>
+      <c r="E289">
+        <v>356</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>2089</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>2009</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>25</v>
+      </c>
+      <c r="O289">
+        <v>950</v>
+      </c>
+      <c r="P289">
+        <v>478</v>
+      </c>
+      <c r="Q289">
+        <v>0</v>
+      </c>
+      <c r="R289">
+        <v>89</v>
+      </c>
+      <c r="S289">
+        <v>571</v>
+      </c>
+      <c r="T289">
+        <v>55</v>
+      </c>
+      <c r="U289">
+        <v>405</v>
+      </c>
+      <c r="V289">
+        <v>0</v>
+      </c>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>1736</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>356</v>
+      </c>
+      <c r="F290">
+        <v>3</v>
+      </c>
+      <c r="G290">
+        <v>2092</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290">
+        <v>2010</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>25</v>
+      </c>
+      <c r="O290">
+        <v>956</v>
+      </c>
+      <c r="P290">
+        <v>478</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <v>89</v>
+      </c>
+      <c r="S290">
+        <v>571</v>
+      </c>
+      <c r="T290">
+        <v>55</v>
+      </c>
+      <c r="U290">
+        <v>411</v>
+      </c>
+      <c r="V290">
+        <v>6</v>
+      </c>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>1736</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>356</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>2092</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>2010</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>25</v>
+      </c>
+      <c r="O291">
+        <v>956</v>
+      </c>
+      <c r="P291">
+        <v>478</v>
+      </c>
+      <c r="Q291">
+        <v>0</v>
+      </c>
+      <c r="R291">
+        <v>89</v>
+      </c>
+      <c r="S291">
+        <v>571</v>
+      </c>
+      <c r="T291">
+        <v>55</v>
+      </c>
+      <c r="U291">
+        <v>411</v>
+      </c>
+      <c r="V291">
+        <v>0</v>
+      </c>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="C292">
+        <v>1740</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>356</v>
+      </c>
+      <c r="F292">
+        <v>4</v>
+      </c>
+      <c r="G292">
+        <v>2096</v>
+      </c>
+      <c r="H292">
+        <v>5</v>
+      </c>
+      <c r="I292">
+        <v>2015</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>25</v>
+      </c>
+      <c r="O292">
+        <v>950</v>
+      </c>
+      <c r="P292">
+        <v>478</v>
+      </c>
+      <c r="Q292">
+        <v>0</v>
+      </c>
+      <c r="R292">
+        <v>89</v>
+      </c>
+      <c r="S292">
+        <v>571</v>
+      </c>
+      <c r="T292">
+        <v>56</v>
+      </c>
+      <c r="U292">
+        <v>413</v>
+      </c>
+      <c r="V292">
+        <v>4</v>
+      </c>
+      <c r="W292" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>1740</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>356</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>2096</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>2015</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>25</v>
+      </c>
+      <c r="O293">
+        <v>950</v>
+      </c>
+      <c r="P293">
+        <v>478</v>
+      </c>
+      <c r="Q293">
+        <v>0</v>
+      </c>
+      <c r="R293">
+        <v>89</v>
+      </c>
+      <c r="S293">
+        <v>571</v>
+      </c>
+      <c r="T293">
+        <v>56</v>
+      </c>
+      <c r="U293">
+        <v>413</v>
+      </c>
+      <c r="V293">
+        <v>0</v>
+      </c>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>1740</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>356</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>2096</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>2015</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>25</v>
+      </c>
+      <c r="O294">
+        <v>950</v>
+      </c>
+      <c r="P294">
+        <v>478</v>
+      </c>
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="R294">
+        <v>89</v>
+      </c>
+      <c r="S294">
+        <v>571</v>
+      </c>
+      <c r="T294">
+        <v>56</v>
+      </c>
+      <c r="U294">
+        <v>413</v>
+      </c>
+      <c r="V294">
+        <v>0</v>
+      </c>
+      <c r="W294" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+      <c r="C295">
+        <v>1744</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>356</v>
+      </c>
+      <c r="F295">
+        <v>4</v>
+      </c>
+      <c r="G295">
+        <v>2100</v>
+      </c>
+      <c r="H295">
+        <v>17</v>
+      </c>
+      <c r="I295">
+        <v>2032</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>25</v>
+      </c>
+      <c r="O295">
+        <v>954</v>
+      </c>
+      <c r="P295">
+        <v>478</v>
+      </c>
+      <c r="Q295">
+        <v>0</v>
+      </c>
+      <c r="R295">
+        <v>89</v>
+      </c>
+      <c r="S295">
+        <v>571</v>
+      </c>
+      <c r="T295">
+        <v>43</v>
+      </c>
+      <c r="U295">
+        <v>417</v>
+      </c>
+      <c r="V295">
+        <v>4</v>
+      </c>
+      <c r="W295" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>

--- a/data/days.xlsx
+++ b/data/days.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W295"/>
+  <dimension ref="A1:W297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18400,6 +18400,146 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1744</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>356</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>2100</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>2032</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>25</v>
+      </c>
+      <c r="O296">
+        <v>954</v>
+      </c>
+      <c r="P296">
+        <v>478</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>89</v>
+      </c>
+      <c r="S296">
+        <v>571</v>
+      </c>
+      <c r="T296">
+        <v>43</v>
+      </c>
+      <c r="U296">
+        <v>417</v>
+      </c>
+      <c r="V296">
+        <v>0</v>
+      </c>
+      <c r="W296" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B297">
+        <v>10</v>
+      </c>
+      <c r="C297">
+        <v>1754</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>356</v>
+      </c>
+      <c r="F297">
+        <v>10</v>
+      </c>
+      <c r="G297">
+        <v>2110</v>
+      </c>
+      <c r="H297">
+        <v>2</v>
+      </c>
+      <c r="I297">
+        <v>2034</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>25</v>
+      </c>
+      <c r="O297">
+        <v>964</v>
+      </c>
+      <c r="P297">
+        <v>478</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>89</v>
+      </c>
+      <c r="S297">
+        <v>571</v>
+      </c>
+      <c r="T297">
+        <v>51</v>
+      </c>
+      <c r="U297">
+        <v>427</v>
+      </c>
+      <c r="V297">
+        <v>10</v>
+      </c>
+      <c r="W297" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
